--- a/Lista de tareas individuales/ListadeTareasAvance40%-GabrielaSandoval.xlsx
+++ b/Lista de tareas individuales/ListadeTareasAvance40%-GabrielaSandoval.xlsx
@@ -5,24 +5,23 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffc19fade4aad401/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galil\OneDrive\Documentos\GitHub\DOCUMENTACIÓN-ItaliaPizza\ItaliaPizza-doc\Lista de tareas individuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2825C74-F915-4A84-8C43-C606977D1B8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{C2825C74-F915-4A84-8C43-C606977D1B8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E916FC7F-FCF5-41F7-BEF9-80C71E2507C2}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="60" windowWidth="11290" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$BB$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$BB$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:$F,'Casos de Uso'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="87">
   <si>
     <t>Columna</t>
   </si>
@@ -178,18 +177,12 @@
     <t>MGS</t>
   </si>
   <si>
-    <t>Modelado genaral del sistema</t>
-  </si>
-  <si>
     <t>Modelo del dominio</t>
   </si>
   <si>
     <t>Por iniciar</t>
   </si>
   <si>
-    <t>CU001 Registrar empleado</t>
-  </si>
-  <si>
     <t>Descripción de casos de uso</t>
   </si>
   <si>
@@ -217,28 +210,92 @@
     <t>CU009</t>
   </si>
   <si>
-    <t>CU002 Editar empleado</t>
-  </si>
-  <si>
-    <t>CU003 Dar de baja empleado</t>
-  </si>
-  <si>
-    <t>CU004 Buscar empleado</t>
-  </si>
-  <si>
-    <t>CU005 Registrar cliente</t>
-  </si>
-  <si>
-    <t>CU007 Dar de baja cliente</t>
-  </si>
-  <si>
-    <t>CU006 Editar cliente</t>
-  </si>
-  <si>
-    <t>CU008 Buscar cliente</t>
-  </si>
-  <si>
-    <t>CU009 Iniciar sesión</t>
+    <t>Modelado general del sistema</t>
+  </si>
+  <si>
+    <t>CU001 Iniciar sesión</t>
+  </si>
+  <si>
+    <t>CU002 Registrar empleado</t>
+  </si>
+  <si>
+    <t>CU003 Mostrar lista de empleados</t>
+  </si>
+  <si>
+    <t>CU004 Editar empleado</t>
+  </si>
+  <si>
+    <t>CU005 Dar de baja empleado</t>
+  </si>
+  <si>
+    <t>CU006 Buscar empleado</t>
+  </si>
+  <si>
+    <t>Hecho</t>
+  </si>
+  <si>
+    <t>CU007 Registrar cliente</t>
+  </si>
+  <si>
+    <t>CU008 Mostrar lista de clientes</t>
+  </si>
+  <si>
+    <t>CU009 Editar clientes</t>
+  </si>
+  <si>
+    <t>CU010</t>
+  </si>
+  <si>
+    <t>CU010 Dar de baja cliente</t>
+  </si>
+  <si>
+    <t>CU011</t>
+  </si>
+  <si>
+    <t>CU011 Buscar cliente</t>
+  </si>
+  <si>
+    <t>Creación de sketches</t>
+  </si>
+  <si>
+    <t> Vectorización</t>
+  </si>
+  <si>
+    <t> Vectorización de logotipo</t>
+  </si>
+  <si>
+    <t>Vectorización de logotipo</t>
+  </si>
+  <si>
+    <t> MGS</t>
+  </si>
+  <si>
+    <t> Modelado general del sistema</t>
+  </si>
+  <si>
+    <t>Diagrama de casos de uso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo de clases </t>
+  </si>
+  <si>
+    <t>CU022</t>
+  </si>
+  <si>
+    <t>CU022 Generar pedido</t>
+  </si>
+  <si>
+    <t>Presentación avances proyecto</t>
+  </si>
+  <si>
+    <t>Presentación</t>
+  </si>
+  <si>
+    <t>00:33:01 
+00:16:40</t>
+  </si>
+  <si>
+    <t>02:24:12  00:11:24</t>
   </si>
 </sst>
 </file>
@@ -386,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -417,12 +474,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -436,6 +487,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -742,13 +805,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BA42"/>
+  <dimension ref="B1:BA56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="71" zoomScaleSheetLayoutView="71" workbookViewId="0">
+      <pane xSplit="6" ySplit="5" topLeftCell="G51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="AZ53" sqref="AZ53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,7 +867,7 @@
     <col min="49" max="49" width="2.6328125" style="13" customWidth="1"/>
     <col min="50" max="50" width="5.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="5.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="5.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.453125" style="13" customWidth="1"/>
     <col min="53" max="53" width="5.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="54" max="16384" width="10.81640625" style="2"/>
   </cols>
@@ -826,212 +889,212 @@
       </c>
     </row>
     <row r="4" spans="2:53" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="14" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="14" t="s">
+      <c r="L4" s="20"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="14" t="s">
+      <c r="O4" s="20"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="14" t="s">
+      <c r="R4" s="20"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="15"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="14" t="s">
+      <c r="U4" s="20"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="14" t="s">
+      <c r="X4" s="20"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="14" t="s">
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="14" t="s">
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="14" t="s">
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="14" t="s">
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="14" t="s">
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="14" t="s">
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="16"/>
-      <c r="AU4" s="14" t="s">
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="16"/>
-      <c r="AX4" s="14" t="s">
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AY4" s="15"/>
-      <c r="AZ4" s="14" t="s">
+      <c r="AY4" s="20"/>
+      <c r="AZ4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="BA4" s="15"/>
+      <c r="BA4" s="20"/>
     </row>
     <row r="5" spans="2:53" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18" t="s">
+      <c r="M5" s="16"/>
+      <c r="N5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18" t="s">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="R5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18" t="s">
+      <c r="S5" s="16"/>
+      <c r="T5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="U5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18" t="s">
+      <c r="V5" s="16"/>
+      <c r="W5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="X5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18" t="s">
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="18" t="s">
+      <c r="AA5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18" t="s">
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AD5" s="18" t="s">
+      <c r="AD5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18" t="s">
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AG5" s="18" t="s">
+      <c r="AG5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18" t="s">
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AJ5" s="18" t="s">
+      <c r="AJ5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18" t="s">
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AM5" s="18" t="s">
+      <c r="AM5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="18" t="s">
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AP5" s="18" t="s">
+      <c r="AP5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AQ5" s="18"/>
-      <c r="AR5" s="18" t="s">
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AS5" s="18" t="s">
+      <c r="AS5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AT5" s="18"/>
-      <c r="AU5" s="18" t="s">
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AV5" s="18" t="s">
+      <c r="AV5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AW5" s="18"/>
-      <c r="AX5" s="18" t="s">
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AY5" s="18" t="s">
+      <c r="AY5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AZ5" s="18" t="s">
+      <c r="AZ5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="BA5" s="18" t="s">
+      <c r="BA5" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1040,16 +1103,16 @@
         <v>46</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="12">
         <v>3</v>
@@ -1059,97 +1122,96 @@
         <f>G6-H6</f>
         <v>3</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12">
-        <f t="shared" ref="L6:L39" si="0">I6-K6</f>
+        <f t="shared" ref="L6:L45" si="0">I6-K6</f>
         <v>3</v>
       </c>
-      <c r="M6" s="19"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12">
-        <f t="shared" ref="O6:O39" si="1">L6-N6</f>
+        <f t="shared" ref="O6:O45" si="1">L6-N6</f>
         <v>3</v>
       </c>
-      <c r="P6" s="19"/>
+      <c r="P6" s="17"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12">
-        <f t="shared" ref="R6:R39" si="2">O6-Q6</f>
+        <f t="shared" ref="R6:R45" si="2">O6-Q6</f>
         <v>3</v>
       </c>
-      <c r="S6" s="19"/>
+      <c r="S6" s="17"/>
       <c r="T6" s="12"/>
       <c r="U6" s="12">
-        <f t="shared" ref="U6:U39" si="3">R6-T6</f>
+        <f t="shared" ref="U6:U45" si="3">R6-T6</f>
         <v>3</v>
       </c>
-      <c r="V6" s="19"/>
+      <c r="V6" s="17"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12">
-        <f t="shared" ref="X6:X39" si="4">U6-W6</f>
+        <f t="shared" ref="X6:X16" si="4">U6-W6</f>
         <v>3</v>
       </c>
-      <c r="Y6" s="19"/>
+      <c r="Y6" s="17"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12">
-        <f t="shared" ref="AA6:AA39" si="5">X6-Z6</f>
+        <f t="shared" ref="AA6:AA45" si="5">X6-Z6</f>
         <v>3</v>
       </c>
-      <c r="AB6" s="19"/>
+      <c r="AB6" s="17"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12">
-        <f t="shared" ref="AD6:AD39" si="6">AA6-AC6</f>
+        <f t="shared" ref="AD6:AD45" si="6">AA6-AC6</f>
         <v>3</v>
       </c>
-      <c r="AE6" s="19"/>
+      <c r="AE6" s="17"/>
       <c r="AF6" s="12"/>
       <c r="AG6" s="12">
-        <f t="shared" ref="AG6:AG39" si="7">AD6-AF6</f>
+        <f t="shared" ref="AG6:AG45" si="7">AD6-AF6</f>
         <v>3</v>
       </c>
-      <c r="AH6" s="19"/>
+      <c r="AH6" s="17"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12">
-        <f t="shared" ref="AJ6:AJ39" si="8">AG6-AI6</f>
+        <f t="shared" ref="AJ6:AJ45" si="8">AG6-AI6</f>
         <v>3</v>
       </c>
-      <c r="AK6" s="19"/>
+      <c r="AK6" s="17"/>
       <c r="AL6" s="12"/>
       <c r="AM6" s="12">
-        <f t="shared" ref="AM6:AM39" si="9">AJ6-AL6</f>
+        <f t="shared" ref="AM6:AM45" si="9">AJ6-AL6</f>
         <v>3</v>
       </c>
-      <c r="AN6" s="19"/>
+      <c r="AN6" s="17"/>
       <c r="AO6" s="12"/>
       <c r="AP6" s="12">
-        <f t="shared" ref="AP6:AP39" si="10">AM6-AO6</f>
+        <f t="shared" ref="AP6:AP45" si="10">AM6-AO6</f>
         <v>3</v>
       </c>
-      <c r="AQ6" s="19"/>
+      <c r="AQ6" s="17"/>
       <c r="AR6" s="12"/>
       <c r="AS6" s="12">
-        <f t="shared" ref="AS6:AS39" si="11">AP6-AR6</f>
+        <f t="shared" ref="AS6:AS45" si="11">AP6-AR6</f>
         <v>3</v>
       </c>
-      <c r="AT6" s="19"/>
+      <c r="AT6" s="17"/>
       <c r="AU6" s="12"/>
       <c r="AV6" s="12">
-        <f t="shared" ref="AV6:AV39" si="12">AS6-AU6</f>
+        <f t="shared" ref="AV6:AV45" si="12">AS6-AU6</f>
         <v>3</v>
       </c>
-      <c r="AW6" s="19"/>
+      <c r="AW6" s="17"/>
       <c r="AX6" s="12"/>
       <c r="AY6" s="12">
-        <f t="shared" ref="AY6:AY39" si="13">AV6-AX6</f>
+        <f t="shared" ref="AY6:AY45" si="13">AV6-AX6</f>
         <v>3</v>
       </c>
-      <c r="AZ6" s="20">
-        <f t="shared" ref="AZ6:AZ39" si="14">H6+K6+N6+Q6+T6+W6+Z6+AC6+AF6+AI6+AL6+AO6+AR6+AU6+AX6</f>
-        <v>0</v>
-      </c>
-      <c r="BA6" s="20">
-        <f t="shared" ref="BA6:BA39" si="15">G6-AZ6</f>
-        <v>3</v>
+      <c r="AZ6" s="21">
+        <v>4.6250000000000006E-2</v>
+      </c>
+      <c r="BA6" s="18">
+        <f t="shared" ref="BA6:BA45" si="14">G6-AZ6</f>
+        <v>2.9537499999999999</v>
       </c>
     </row>
     <row r="7" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
@@ -1157,455 +1219,451 @@
         <v>41</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="12">
         <v>2</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12">
-        <f t="shared" ref="I7:I39" si="16">G7-H7</f>
-        <v>2</v>
-      </c>
-      <c r="J7" s="19"/>
+        <f t="shared" ref="I7:I45" si="15">G7-H7</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="17"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M7" s="19"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P7" s="19"/>
+      <c r="P7" s="17"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="S7" s="19"/>
+      <c r="S7" s="17"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="V7" s="19"/>
+      <c r="V7" s="17"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="Y7" s="19"/>
+      <c r="Y7" s="17"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AB7" s="19"/>
+      <c r="AB7" s="17"/>
       <c r="AC7" s="12"/>
       <c r="AD7" s="12">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AE7" s="19"/>
+      <c r="AE7" s="17"/>
       <c r="AF7" s="12"/>
       <c r="AG7" s="12">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AH7" s="19"/>
+      <c r="AH7" s="17"/>
       <c r="AI7" s="12"/>
       <c r="AJ7" s="12">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AK7" s="19"/>
+      <c r="AK7" s="17"/>
       <c r="AL7" s="12"/>
       <c r="AM7" s="12">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AN7" s="19"/>
+      <c r="AN7" s="17"/>
       <c r="AO7" s="12"/>
       <c r="AP7" s="12">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AQ7" s="19"/>
+      <c r="AQ7" s="17"/>
       <c r="AR7" s="12"/>
       <c r="AS7" s="12">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="AT7" s="19"/>
+      <c r="AT7" s="17"/>
       <c r="AU7" s="12"/>
       <c r="AV7" s="12">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="AW7" s="19"/>
+      <c r="AW7" s="17"/>
       <c r="AX7" s="12"/>
       <c r="AY7" s="12">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AZ7" s="20">
+      <c r="AZ7" s="21">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="BA7" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BA7" s="20">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>1.9444444444444444</v>
       </c>
     </row>
     <row r="8" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="12">
         <v>1</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="J8" s="19"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="17"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M8" s="19"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P8" s="19"/>
+      <c r="P8" s="17"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S8" s="19"/>
+      <c r="S8" s="17"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V8" s="19"/>
+      <c r="V8" s="17"/>
       <c r="W8" s="12"/>
       <c r="X8" s="12">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y8" s="19"/>
+      <c r="Y8" s="17"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AB8" s="19"/>
+      <c r="AB8" s="17"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AE8" s="19"/>
+      <c r="AE8" s="17"/>
       <c r="AF8" s="12"/>
       <c r="AG8" s="12">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AH8" s="19"/>
+      <c r="AH8" s="17"/>
       <c r="AI8" s="12"/>
       <c r="AJ8" s="12">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK8" s="19"/>
+      <c r="AK8" s="17"/>
       <c r="AL8" s="12"/>
       <c r="AM8" s="12">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AN8" s="19"/>
+      <c r="AN8" s="17"/>
       <c r="AO8" s="12"/>
       <c r="AP8" s="12">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AQ8" s="19"/>
+      <c r="AQ8" s="17"/>
       <c r="AR8" s="12"/>
       <c r="AS8" s="12">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AT8" s="19"/>
+      <c r="AT8" s="17"/>
       <c r="AU8" s="12"/>
       <c r="AV8" s="12">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AW8" s="19"/>
+      <c r="AW8" s="17"/>
       <c r="AX8" s="12"/>
       <c r="AY8" s="12">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AZ8" s="20">
+      <c r="AZ8" s="21">
+        <v>4.5335648148148146E-2</v>
+      </c>
+      <c r="BA8" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BA8" s="20">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0.95466435185185183</v>
       </c>
     </row>
     <row r="9" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="12">
         <v>2</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="J9" s="19"/>
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="J9" s="17"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M9" s="19"/>
+      <c r="M9" s="17"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P9" s="19"/>
+      <c r="P9" s="17"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="S9" s="19"/>
+      <c r="S9" s="17"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="V9" s="19"/>
+      <c r="V9" s="17"/>
       <c r="W9" s="12"/>
       <c r="X9" s="12">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="Y9" s="19"/>
+      <c r="Y9" s="17"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AB9" s="19"/>
+      <c r="AB9" s="17"/>
       <c r="AC9" s="12"/>
       <c r="AD9" s="12">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AE9" s="19"/>
+      <c r="AE9" s="17"/>
       <c r="AF9" s="12"/>
       <c r="AG9" s="12">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AH9" s="19"/>
+      <c r="AH9" s="17"/>
       <c r="AI9" s="12"/>
       <c r="AJ9" s="12">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AK9" s="19"/>
+      <c r="AK9" s="17"/>
       <c r="AL9" s="12"/>
       <c r="AM9" s="12">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AN9" s="19"/>
+      <c r="AN9" s="17"/>
       <c r="AO9" s="12"/>
       <c r="AP9" s="12">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AQ9" s="19"/>
+      <c r="AQ9" s="17"/>
       <c r="AR9" s="12"/>
       <c r="AS9" s="12">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="AT9" s="19"/>
+      <c r="AT9" s="17"/>
       <c r="AU9" s="12"/>
       <c r="AV9" s="12">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="AW9" s="19"/>
+      <c r="AW9" s="17"/>
       <c r="AX9" s="12"/>
       <c r="AY9" s="12">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AZ9" s="20">
+      <c r="AZ9" s="21">
+        <v>4.0798611111111112E-2</v>
+      </c>
+      <c r="BA9" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BA9" s="20">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>1.9592013888888888</v>
       </c>
     </row>
     <row r="10" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="12">
         <v>2</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="J10" s="19"/>
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="J10" s="17"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M10" s="19"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P10" s="19"/>
+      <c r="P10" s="17"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="S10" s="19"/>
+      <c r="S10" s="17"/>
       <c r="T10" s="12"/>
       <c r="U10" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="V10" s="19"/>
+      <c r="V10" s="17"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="Y10" s="19"/>
+      <c r="Y10" s="17"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AB10" s="19"/>
+      <c r="AB10" s="17"/>
       <c r="AC10" s="12"/>
       <c r="AD10" s="12">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AE10" s="19"/>
+      <c r="AE10" s="17"/>
       <c r="AF10" s="12"/>
       <c r="AG10" s="12">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AH10" s="19"/>
+      <c r="AH10" s="17"/>
       <c r="AI10" s="12"/>
       <c r="AJ10" s="12">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AK10" s="19"/>
+      <c r="AK10" s="17"/>
       <c r="AL10" s="12"/>
       <c r="AM10" s="12">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AN10" s="19"/>
+      <c r="AN10" s="17"/>
       <c r="AO10" s="12"/>
       <c r="AP10" s="12">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AQ10" s="19"/>
+      <c r="AQ10" s="17"/>
       <c r="AR10" s="12"/>
       <c r="AS10" s="12">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="AT10" s="19"/>
+      <c r="AT10" s="17"/>
       <c r="AU10" s="12"/>
       <c r="AV10" s="12">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="AW10" s="19"/>
+      <c r="AW10" s="17"/>
       <c r="AX10" s="12"/>
       <c r="AY10" s="12">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AZ10" s="20">
+      <c r="AZ10" s="21">
+        <v>3.4236111111111113E-2</v>
+      </c>
+      <c r="BA10" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BA10" s="20">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>1.9657638888888889</v>
       </c>
     </row>
     <row r="11" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
@@ -1616,401 +1674,400 @@
         <v>60</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="12">
         <v>2</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="19"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="19"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="19"/>
+      <c r="P11" s="17"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
-      <c r="S11" s="19"/>
+      <c r="S11" s="17"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
-      <c r="V11" s="19"/>
+      <c r="V11" s="17"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
-      <c r="Y11" s="19"/>
+      <c r="Y11" s="17"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
-      <c r="AB11" s="19"/>
+      <c r="AB11" s="17"/>
       <c r="AC11" s="12"/>
       <c r="AD11" s="12"/>
-      <c r="AE11" s="19"/>
+      <c r="AE11" s="17"/>
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
-      <c r="AH11" s="19"/>
+      <c r="AH11" s="17"/>
       <c r="AI11" s="12"/>
       <c r="AJ11" s="12"/>
-      <c r="AK11" s="19"/>
+      <c r="AK11" s="17"/>
       <c r="AL11" s="12"/>
       <c r="AM11" s="12"/>
-      <c r="AN11" s="19"/>
+      <c r="AN11" s="17"/>
       <c r="AO11" s="12"/>
       <c r="AP11" s="12"/>
-      <c r="AQ11" s="19"/>
+      <c r="AQ11" s="17"/>
       <c r="AR11" s="12"/>
       <c r="AS11" s="12"/>
-      <c r="AT11" s="19"/>
+      <c r="AT11" s="17"/>
       <c r="AU11" s="12"/>
       <c r="AV11" s="12"/>
-      <c r="AW11" s="19"/>
+      <c r="AW11" s="17"/>
       <c r="AX11" s="12"/>
       <c r="AY11" s="12"/>
-      <c r="AZ11" s="20"/>
-      <c r="BA11" s="20"/>
+      <c r="AZ11" s="21">
+        <v>4.7118055555555559E-2</v>
+      </c>
+      <c r="BA11" s="18"/>
     </row>
     <row r="12" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="12">
         <v>1</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="19"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="17"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M12" s="19"/>
+      <c r="M12" s="17"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P12" s="19"/>
+      <c r="P12" s="17"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S12" s="19"/>
+      <c r="S12" s="17"/>
       <c r="T12" s="12"/>
       <c r="U12" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V12" s="19"/>
+      <c r="V12" s="17"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y12" s="19"/>
+      <c r="Y12" s="17"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AB12" s="19"/>
+      <c r="AB12" s="17"/>
       <c r="AC12" s="12"/>
       <c r="AD12" s="12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AE12" s="19"/>
+      <c r="AE12" s="17"/>
       <c r="AF12" s="12"/>
       <c r="AG12" s="12">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AH12" s="19"/>
+      <c r="AH12" s="17"/>
       <c r="AI12" s="12"/>
       <c r="AJ12" s="12">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK12" s="19"/>
+      <c r="AK12" s="17"/>
       <c r="AL12" s="12"/>
       <c r="AM12" s="12">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AN12" s="19"/>
+      <c r="AN12" s="17"/>
       <c r="AO12" s="12"/>
       <c r="AP12" s="12">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AQ12" s="19"/>
+      <c r="AQ12" s="17"/>
       <c r="AR12" s="12"/>
       <c r="AS12" s="12">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AT12" s="19"/>
+      <c r="AT12" s="17"/>
       <c r="AU12" s="12"/>
       <c r="AV12" s="12">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AW12" s="19"/>
+      <c r="AW12" s="17"/>
       <c r="AX12" s="12"/>
       <c r="AY12" s="12">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AZ12" s="20">
+      <c r="AZ12" s="21">
+        <v>1.5023148148148148E-2</v>
+      </c>
+      <c r="BA12" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BA12" s="20">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0.9849768518518518</v>
       </c>
     </row>
     <row r="13" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="12">
         <v>2</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="J13" s="19"/>
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="17"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M13" s="19"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P13" s="19"/>
+      <c r="P13" s="17"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="S13" s="19"/>
+      <c r="S13" s="17"/>
       <c r="T13" s="12"/>
       <c r="U13" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="V13" s="19"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="Y13" s="19"/>
+      <c r="Y13" s="17"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AB13" s="19"/>
+      <c r="AB13" s="17"/>
       <c r="AC13" s="12"/>
       <c r="AD13" s="12">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AE13" s="19"/>
+      <c r="AE13" s="17"/>
       <c r="AF13" s="12"/>
       <c r="AG13" s="12">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AH13" s="19"/>
+      <c r="AH13" s="17"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="12">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AK13" s="19"/>
+      <c r="AK13" s="17"/>
       <c r="AL13" s="12"/>
       <c r="AM13" s="12">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AN13" s="19"/>
+      <c r="AN13" s="17"/>
       <c r="AO13" s="12"/>
       <c r="AP13" s="12">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AQ13" s="19"/>
+      <c r="AQ13" s="17"/>
       <c r="AR13" s="12"/>
       <c r="AS13" s="12">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="AT13" s="19"/>
+      <c r="AT13" s="17"/>
       <c r="AU13" s="12"/>
       <c r="AV13" s="12">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="AW13" s="19"/>
+      <c r="AW13" s="17"/>
       <c r="AX13" s="12"/>
       <c r="AY13" s="12">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AZ13" s="20">
+      <c r="AZ13" s="21">
+        <v>9.432870370370371E-3</v>
+      </c>
+      <c r="BA13" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BA13" s="20">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>1.9905671296296297</v>
       </c>
     </row>
     <row r="14" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="12">
         <v>2</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="J14" s="19"/>
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="J14" s="17"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M14" s="19"/>
+      <c r="M14" s="17"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P14" s="19"/>
+      <c r="P14" s="17"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="S14" s="19"/>
+      <c r="S14" s="17"/>
       <c r="T14" s="12"/>
       <c r="U14" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="V14" s="19"/>
+      <c r="V14" s="17"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="Y14" s="19"/>
+      <c r="Y14" s="17"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AB14" s="19"/>
+      <c r="AB14" s="17"/>
       <c r="AC14" s="12"/>
       <c r="AD14" s="12">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AE14" s="19"/>
+      <c r="AE14" s="17"/>
       <c r="AF14" s="12"/>
       <c r="AG14" s="12">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AH14" s="19"/>
+      <c r="AH14" s="17"/>
       <c r="AI14" s="12"/>
       <c r="AJ14" s="12">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AK14" s="19"/>
+      <c r="AK14" s="17"/>
       <c r="AL14" s="12"/>
       <c r="AM14" s="12">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AN14" s="19"/>
+      <c r="AN14" s="17"/>
       <c r="AO14" s="12"/>
       <c r="AP14" s="12">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AQ14" s="19"/>
+      <c r="AQ14" s="17"/>
       <c r="AR14" s="12"/>
       <c r="AS14" s="12">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="AT14" s="19"/>
+      <c r="AT14" s="17"/>
       <c r="AU14" s="12"/>
       <c r="AV14" s="12">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="AW14" s="19"/>
+      <c r="AW14" s="17"/>
       <c r="AX14" s="12"/>
       <c r="AY14" s="12">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AZ14" s="20">
+      <c r="AZ14" s="21">
+        <v>4.9282407407407407E-2</v>
+      </c>
+      <c r="BA14" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BA14" s="20">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>1.9507175925925926</v>
       </c>
     </row>
     <row r="15" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
@@ -2021,452 +2078,448 @@
         <v>61</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="12">
         <v>2</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="J15" s="19"/>
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="J15" s="17"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M15" s="19"/>
+      <c r="M15" s="17"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P15" s="19"/>
+      <c r="P15" s="17"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="S15" s="19"/>
+      <c r="S15" s="17"/>
       <c r="T15" s="12"/>
       <c r="U15" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="V15" s="19"/>
+      <c r="V15" s="17"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="Y15" s="19"/>
+      <c r="Y15" s="17"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AB15" s="19"/>
+      <c r="AB15" s="17"/>
       <c r="AC15" s="12"/>
       <c r="AD15" s="12">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AE15" s="19"/>
+      <c r="AE15" s="17"/>
       <c r="AF15" s="12"/>
       <c r="AG15" s="12">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AH15" s="19"/>
+      <c r="AH15" s="17"/>
       <c r="AI15" s="12"/>
       <c r="AJ15" s="12">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AK15" s="19"/>
+      <c r="AK15" s="17"/>
       <c r="AL15" s="12"/>
       <c r="AM15" s="12">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AN15" s="19"/>
+      <c r="AN15" s="17"/>
       <c r="AO15" s="12"/>
       <c r="AP15" s="12">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AQ15" s="19"/>
+      <c r="AQ15" s="17"/>
       <c r="AR15" s="12"/>
       <c r="AS15" s="12">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="AT15" s="19"/>
+      <c r="AT15" s="17"/>
       <c r="AU15" s="12"/>
       <c r="AV15" s="12">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="AW15" s="19"/>
+      <c r="AW15" s="17"/>
       <c r="AX15" s="12"/>
       <c r="AY15" s="12">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AZ15" s="20">
+      <c r="AZ15" s="21">
+        <v>1.1504629629629629E-2</v>
+      </c>
+      <c r="BA15" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BA15" s="20">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>1.9884953703703703</v>
       </c>
     </row>
     <row r="16" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="12">
         <v>1</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="19"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="17"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M16" s="19"/>
+      <c r="M16" s="17"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P16" s="19"/>
+      <c r="P16" s="17"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S16" s="19"/>
+      <c r="S16" s="17"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V16" s="19"/>
+      <c r="V16" s="17"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y16" s="19"/>
+      <c r="Y16" s="17"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AB16" s="19"/>
+      <c r="AB16" s="17"/>
       <c r="AC16" s="12"/>
       <c r="AD16" s="12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AE16" s="19"/>
+      <c r="AE16" s="17"/>
       <c r="AF16" s="12"/>
       <c r="AG16" s="12">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AH16" s="19"/>
+      <c r="AH16" s="17"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="12">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK16" s="19"/>
+      <c r="AK16" s="17"/>
       <c r="AL16" s="12"/>
       <c r="AM16" s="12">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AN16" s="19"/>
+      <c r="AN16" s="17"/>
       <c r="AO16" s="12"/>
       <c r="AP16" s="12">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AQ16" s="19"/>
+      <c r="AQ16" s="17"/>
       <c r="AR16" s="12"/>
       <c r="AS16" s="12">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AT16" s="19"/>
+      <c r="AT16" s="17"/>
       <c r="AU16" s="12"/>
       <c r="AV16" s="12">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AW16" s="19"/>
+      <c r="AW16" s="17"/>
       <c r="AX16" s="12"/>
       <c r="AY16" s="12">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AZ16" s="20" t="e">
-        <f>H16+K16+N16+Q16+T16+W16+Z16+AC16+AF16+AI16+AL16+AO16+AR16+AU16+AX16+#REF!+#REF!+#REF!+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BA16" s="20" t="e">
-        <f t="shared" si="15"/>
-        <v>#REF!</v>
+      <c r="AZ16" s="21">
+        <v>1.758101851851852E-2</v>
+      </c>
+      <c r="BA16" s="18">
+        <f t="shared" si="14"/>
+        <v>0.98241898148148143</v>
       </c>
     </row>
     <row r="17" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="12">
         <v>2</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12">
-        <f t="shared" ref="I17:I21" si="17">G17-H17</f>
-        <v>2</v>
-      </c>
-      <c r="J17" s="19"/>
+        <f t="shared" ref="I17:I21" si="16">G17-H17</f>
+        <v>2</v>
+      </c>
+      <c r="J17" s="17"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12">
-        <f t="shared" ref="L17:L21" si="18">I17-K17</f>
-        <v>2</v>
-      </c>
-      <c r="M17" s="19"/>
+        <f t="shared" ref="L17:L21" si="17">I17-K17</f>
+        <v>2</v>
+      </c>
+      <c r="M17" s="17"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12">
-        <f t="shared" ref="O17:O21" si="19">L17-N17</f>
-        <v>2</v>
-      </c>
-      <c r="P17" s="19"/>
+        <f t="shared" ref="O17:O21" si="18">L17-N17</f>
+        <v>2</v>
+      </c>
+      <c r="P17" s="17"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12">
-        <f t="shared" ref="R17:R21" si="20">O17-Q17</f>
-        <v>2</v>
-      </c>
-      <c r="S17" s="19"/>
+        <f t="shared" ref="R17:R21" si="19">O17-Q17</f>
+        <v>2</v>
+      </c>
+      <c r="S17" s="17"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12">
-        <f t="shared" ref="U17:U21" si="21">R17-T17</f>
-        <v>2</v>
-      </c>
-      <c r="V17" s="19"/>
+        <f t="shared" ref="U17:U21" si="20">R17-T17</f>
+        <v>2</v>
+      </c>
+      <c r="V17" s="17"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12">
-        <f t="shared" ref="X17:X21" si="22">U17-W17</f>
-        <v>2</v>
-      </c>
-      <c r="Y17" s="19"/>
+        <f t="shared" ref="X17:X21" si="21">U17-W17</f>
+        <v>2</v>
+      </c>
+      <c r="Y17" s="17"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12">
-        <f t="shared" ref="AA17:AA21" si="23">X17-Z17</f>
-        <v>2</v>
-      </c>
-      <c r="AB17" s="19"/>
+        <f t="shared" ref="AA17:AA21" si="22">X17-Z17</f>
+        <v>2</v>
+      </c>
+      <c r="AB17" s="17"/>
       <c r="AC17" s="12"/>
       <c r="AD17" s="12">
-        <f t="shared" ref="AD17:AD21" si="24">AA17-AC17</f>
-        <v>2</v>
-      </c>
-      <c r="AE17" s="19"/>
+        <f t="shared" ref="AD17:AD21" si="23">AA17-AC17</f>
+        <v>2</v>
+      </c>
+      <c r="AE17" s="17"/>
       <c r="AF17" s="12"/>
       <c r="AG17" s="12">
-        <f t="shared" ref="AG17:AG21" si="25">AD17-AF17</f>
-        <v>2</v>
-      </c>
-      <c r="AH17" s="19"/>
+        <f t="shared" ref="AG17:AG21" si="24">AD17-AF17</f>
+        <v>2</v>
+      </c>
+      <c r="AH17" s="17"/>
       <c r="AI17" s="12"/>
       <c r="AJ17" s="12">
-        <f t="shared" ref="AJ17:AJ21" si="26">AG17-AI17</f>
-        <v>2</v>
-      </c>
-      <c r="AK17" s="19"/>
+        <f t="shared" ref="AJ17:AJ21" si="25">AG17-AI17</f>
+        <v>2</v>
+      </c>
+      <c r="AK17" s="17"/>
       <c r="AL17" s="12"/>
       <c r="AM17" s="12">
-        <f t="shared" ref="AM17:AM21" si="27">AJ17-AL17</f>
-        <v>2</v>
-      </c>
-      <c r="AN17" s="19"/>
+        <f t="shared" ref="AM17:AM21" si="26">AJ17-AL17</f>
+        <v>2</v>
+      </c>
+      <c r="AN17" s="17"/>
       <c r="AO17" s="12"/>
       <c r="AP17" s="12">
-        <f t="shared" ref="AP17:AP21" si="28">AM17-AO17</f>
-        <v>2</v>
-      </c>
-      <c r="AQ17" s="19"/>
+        <f t="shared" ref="AP17:AP21" si="27">AM17-AO17</f>
+        <v>2</v>
+      </c>
+      <c r="AQ17" s="17"/>
       <c r="AR17" s="12"/>
       <c r="AS17" s="12">
-        <f t="shared" ref="AS17:AS21" si="29">AP17-AR17</f>
-        <v>2</v>
-      </c>
-      <c r="AT17" s="19"/>
+        <f t="shared" ref="AS17:AS21" si="28">AP17-AR17</f>
+        <v>2</v>
+      </c>
+      <c r="AT17" s="17"/>
       <c r="AU17" s="12"/>
       <c r="AV17" s="12">
-        <f t="shared" ref="AV17:AV21" si="30">AS17-AU17</f>
-        <v>2</v>
-      </c>
-      <c r="AW17" s="19"/>
+        <f t="shared" ref="AV17:AV21" si="29">AS17-AU17</f>
+        <v>2</v>
+      </c>
+      <c r="AW17" s="17"/>
       <c r="AX17" s="12"/>
       <c r="AY17" s="12">
-        <f t="shared" ref="AY17:AY21" si="31">AV17-AX17</f>
-        <v>2</v>
-      </c>
-      <c r="AZ17" s="20">
-        <f t="shared" ref="AZ17:AZ20" si="32">H17+K17+N17+Q17+T17+W17+Z17+AC17+AF17+AI17+AL17+AO17+AR17+AU17+AX17</f>
-        <v>0</v>
-      </c>
-      <c r="BA17" s="20">
-        <f t="shared" ref="BA17:BA21" si="33">G17-AZ17</f>
-        <v>2</v>
+        <f t="shared" ref="AY17:AY21" si="30">AV17-AX17</f>
+        <v>2</v>
+      </c>
+      <c r="AZ17" s="21">
+        <v>7.3958333333333341E-3</v>
+      </c>
+      <c r="BA17" s="18">
+        <f t="shared" ref="BA17:BA21" si="31">G17-AZ17</f>
+        <v>1.9926041666666667</v>
       </c>
     </row>
     <row r="18" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G18" s="12">
         <v>2</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="J18" s="19"/>
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="J18" s="17"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="M18" s="19"/>
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="17"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="P18" s="19"/>
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="P18" s="17"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="S18" s="19"/>
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="S18" s="17"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="V18" s="19"/>
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="V18" s="17"/>
       <c r="W18" s="12"/>
       <c r="X18" s="12">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="Y18" s="19"/>
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="Y18" s="17"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="AB18" s="19"/>
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AB18" s="17"/>
       <c r="AC18" s="12"/>
       <c r="AD18" s="12">
-        <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
-      <c r="AE18" s="19"/>
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AE18" s="17"/>
       <c r="AF18" s="12"/>
       <c r="AG18" s="12">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="AH18" s="19"/>
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AH18" s="17"/>
       <c r="AI18" s="12"/>
       <c r="AJ18" s="12">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-      <c r="AK18" s="19"/>
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="AK18" s="17"/>
       <c r="AL18" s="12"/>
       <c r="AM18" s="12">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="AN18" s="19"/>
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="AN18" s="17"/>
       <c r="AO18" s="12"/>
       <c r="AP18" s="12">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AQ18" s="19"/>
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="AQ18" s="17"/>
       <c r="AR18" s="12"/>
       <c r="AS18" s="12">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AT18" s="19"/>
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="AT18" s="17"/>
       <c r="AU18" s="12"/>
       <c r="AV18" s="12">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="AW18" s="19"/>
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="AW18" s="17"/>
       <c r="AX18" s="12"/>
       <c r="AY18" s="12">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="AZ18" s="21">
+        <v>0.10945601851851851</v>
+      </c>
+      <c r="BA18" s="18">
         <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
-      <c r="AZ18" s="20">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="BA18" s="20">
-        <f t="shared" si="33"/>
-        <v>2</v>
+        <v>1.8905439814814815</v>
       </c>
     </row>
     <row r="19" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
@@ -2477,2736 +2530,4301 @@
         <v>62</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G19" s="12">
         <v>2</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="J19" s="19"/>
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="J19" s="17"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="M19" s="19"/>
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="17"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="P19" s="19"/>
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="P19" s="17"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="S19" s="19"/>
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="S19" s="17"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="V19" s="19"/>
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="V19" s="17"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="Y19" s="19"/>
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="Y19" s="17"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="AB19" s="19"/>
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AB19" s="17"/>
       <c r="AC19" s="12"/>
       <c r="AD19" s="12">
-        <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
-      <c r="AE19" s="19"/>
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AE19" s="17"/>
       <c r="AF19" s="12"/>
       <c r="AG19" s="12">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="AH19" s="19"/>
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AH19" s="17"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="12">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-      <c r="AK19" s="19"/>
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="AK19" s="17"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="12">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="AN19" s="19"/>
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="AN19" s="17"/>
       <c r="AO19" s="12"/>
       <c r="AP19" s="12">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AQ19" s="19"/>
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="AQ19" s="17"/>
       <c r="AR19" s="12"/>
       <c r="AS19" s="12">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AT19" s="19"/>
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="AT19" s="17"/>
       <c r="AU19" s="12"/>
       <c r="AV19" s="12">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="AW19" s="19"/>
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="AW19" s="17"/>
       <c r="AX19" s="12"/>
       <c r="AY19" s="12">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="AZ19" s="21">
+        <v>1.9351851851851853E-2</v>
+      </c>
+      <c r="BA19" s="18">
         <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
-      <c r="AZ19" s="20">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="BA19" s="20">
-        <f t="shared" si="33"/>
-        <v>2</v>
+        <v>1.9806481481481482</v>
       </c>
     </row>
     <row r="20" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G20" s="12">
         <v>1</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="J20" s="19"/>
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="17"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="M20" s="19"/>
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="17"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="P20" s="19"/>
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="17"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="19"/>
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="17"/>
       <c r="T20" s="12"/>
       <c r="U20" s="12">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="V20" s="19"/>
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="V20" s="17"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="Y20" s="19"/>
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Y20" s="17"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AB20" s="19"/>
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AB20" s="17"/>
       <c r="AC20" s="12"/>
       <c r="AD20" s="12">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="AE20" s="19"/>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AE20" s="17"/>
       <c r="AF20" s="12"/>
       <c r="AG20" s="12">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="AH20" s="19"/>
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AH20" s="17"/>
       <c r="AI20" s="12"/>
       <c r="AJ20" s="12">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="AK20" s="19"/>
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AK20" s="17"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="AN20" s="19"/>
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AN20" s="17"/>
       <c r="AO20" s="12"/>
       <c r="AP20" s="12">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="AQ20" s="19"/>
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="17"/>
       <c r="AR20" s="12"/>
       <c r="AS20" s="12">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="AT20" s="19"/>
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="AT20" s="17"/>
       <c r="AU20" s="12"/>
       <c r="AV20" s="12">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AW20" s="19"/>
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="AW20" s="17"/>
       <c r="AX20" s="12"/>
       <c r="AY20" s="12">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="21">
+        <v>2.3877314814814813E-2</v>
+      </c>
+      <c r="BA20" s="18">
         <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="AZ20" s="20">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="BA20" s="20">
-        <f t="shared" si="33"/>
-        <v>1</v>
+        <v>0.97612268518518519</v>
       </c>
     </row>
     <row r="21" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G21" s="12">
         <v>2</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="J21" s="19"/>
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="J21" s="17"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="M21" s="19"/>
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="M21" s="17"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="P21" s="19"/>
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="P21" s="17"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="S21" s="19"/>
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="S21" s="17"/>
       <c r="T21" s="12"/>
       <c r="U21" s="12">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="V21" s="19"/>
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="V21" s="17"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="Y21" s="19"/>
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="Y21" s="17"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="AB21" s="19"/>
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AB21" s="17"/>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12">
-        <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
-      <c r="AE21" s="19"/>
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AE21" s="17"/>
       <c r="AF21" s="12"/>
       <c r="AG21" s="12">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="AH21" s="19"/>
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AH21" s="17"/>
       <c r="AI21" s="12"/>
       <c r="AJ21" s="12">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-      <c r="AK21" s="19"/>
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="AK21" s="17"/>
       <c r="AL21" s="12"/>
       <c r="AM21" s="12">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="AN21" s="19"/>
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="AN21" s="17"/>
       <c r="AO21" s="12"/>
       <c r="AP21" s="12">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AQ21" s="19"/>
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="AQ21" s="17"/>
       <c r="AR21" s="12"/>
       <c r="AS21" s="12">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AT21" s="19"/>
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="AT21" s="17"/>
       <c r="AU21" s="12"/>
       <c r="AV21" s="12">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="AW21" s="19"/>
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="AW21" s="17"/>
       <c r="AX21" s="12"/>
       <c r="AY21" s="12">
+        <f t="shared" si="30"/>
+        <v>2</v>
+      </c>
+      <c r="AZ21" s="21">
+        <v>1.6342592592592593E-2</v>
+      </c>
+      <c r="BA21" s="18">
         <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
-      <c r="AZ21" s="20" t="e">
-        <f>H21+K21+N21+Q21+T21+W21+Z21+AC21+AF21+AI21+AL21+AO21+AR21+AU21+AX21+#REF!+#REF!+#REF!+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BA21" s="20" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <v>1.9836574074074074</v>
       </c>
     </row>
     <row r="22" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G22" s="12">
         <v>2</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12">
-        <f t="shared" ref="I22:I35" si="34">G22-H22</f>
-        <v>2</v>
-      </c>
-      <c r="J22" s="19"/>
+        <f t="shared" ref="I22:I35" si="32">G22-H22</f>
+        <v>2</v>
+      </c>
+      <c r="J22" s="17"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12">
-        <f t="shared" ref="L22:L35" si="35">I22-K22</f>
-        <v>2</v>
-      </c>
-      <c r="M22" s="19"/>
+        <f t="shared" ref="L22:L35" si="33">I22-K22</f>
+        <v>2</v>
+      </c>
+      <c r="M22" s="17"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12">
-        <f t="shared" ref="O22:O35" si="36">L22-N22</f>
-        <v>2</v>
-      </c>
-      <c r="P22" s="19"/>
+        <f t="shared" ref="O22:O35" si="34">L22-N22</f>
+        <v>2</v>
+      </c>
+      <c r="P22" s="17"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12">
-        <f t="shared" ref="R22:R35" si="37">O22-Q22</f>
-        <v>2</v>
-      </c>
-      <c r="S22" s="19"/>
+        <f t="shared" ref="R22:R35" si="35">O22-Q22</f>
+        <v>2</v>
+      </c>
+      <c r="S22" s="17"/>
       <c r="T22" s="12"/>
       <c r="U22" s="12">
-        <f t="shared" ref="U22:U35" si="38">R22-T22</f>
-        <v>2</v>
-      </c>
-      <c r="V22" s="19"/>
+        <f t="shared" ref="U22:U35" si="36">R22-T22</f>
+        <v>2</v>
+      </c>
+      <c r="V22" s="17"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12">
-        <f t="shared" ref="X22:X35" si="39">U22-W22</f>
-        <v>2</v>
-      </c>
-      <c r="Y22" s="19"/>
+        <f t="shared" ref="X22" si="37">U22-W22</f>
+        <v>2</v>
+      </c>
+      <c r="Y22" s="17"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12">
-        <f t="shared" ref="AA22:AA35" si="40">X22-Z22</f>
-        <v>2</v>
-      </c>
-      <c r="AB22" s="19"/>
+        <f t="shared" ref="AA22:AA35" si="38">X22-Z22</f>
+        <v>2</v>
+      </c>
+      <c r="AB22" s="17"/>
       <c r="AC22" s="12"/>
       <c r="AD22" s="12">
-        <f t="shared" ref="AD22:AD35" si="41">AA22-AC22</f>
-        <v>2</v>
-      </c>
-      <c r="AE22" s="19"/>
+        <f t="shared" ref="AD22:AD35" si="39">AA22-AC22</f>
+        <v>2</v>
+      </c>
+      <c r="AE22" s="17"/>
       <c r="AF22" s="12"/>
       <c r="AG22" s="12">
-        <f t="shared" ref="AG22:AG35" si="42">AD22-AF22</f>
-        <v>2</v>
-      </c>
-      <c r="AH22" s="19"/>
+        <f t="shared" ref="AG22:AG35" si="40">AD22-AF22</f>
+        <v>2</v>
+      </c>
+      <c r="AH22" s="17"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="12">
-        <f t="shared" ref="AJ22:AJ35" si="43">AG22-AI22</f>
-        <v>2</v>
-      </c>
-      <c r="AK22" s="19"/>
+        <f t="shared" ref="AJ22:AJ35" si="41">AG22-AI22</f>
+        <v>2</v>
+      </c>
+      <c r="AK22" s="17"/>
       <c r="AL22" s="12"/>
       <c r="AM22" s="12">
-        <f t="shared" ref="AM22:AM35" si="44">AJ22-AL22</f>
-        <v>2</v>
-      </c>
-      <c r="AN22" s="19"/>
+        <f t="shared" ref="AM22:AM35" si="42">AJ22-AL22</f>
+        <v>2</v>
+      </c>
+      <c r="AN22" s="17"/>
       <c r="AO22" s="12"/>
       <c r="AP22" s="12">
-        <f t="shared" ref="AP22:AP35" si="45">AM22-AO22</f>
-        <v>2</v>
-      </c>
-      <c r="AQ22" s="19"/>
+        <f t="shared" ref="AP22:AP35" si="43">AM22-AO22</f>
+        <v>2</v>
+      </c>
+      <c r="AQ22" s="17"/>
       <c r="AR22" s="12"/>
       <c r="AS22" s="12">
-        <f t="shared" ref="AS22:AS35" si="46">AP22-AR22</f>
-        <v>2</v>
-      </c>
-      <c r="AT22" s="19"/>
+        <f t="shared" ref="AS22:AS35" si="44">AP22-AR22</f>
+        <v>2</v>
+      </c>
+      <c r="AT22" s="17"/>
       <c r="AU22" s="12"/>
       <c r="AV22" s="12">
-        <f t="shared" ref="AV22:AV35" si="47">AS22-AU22</f>
-        <v>2</v>
-      </c>
-      <c r="AW22" s="19"/>
+        <f t="shared" ref="AV22:AV35" si="45">AS22-AU22</f>
+        <v>2</v>
+      </c>
+      <c r="AW22" s="17"/>
       <c r="AX22" s="12"/>
       <c r="AY22" s="12">
-        <f t="shared" ref="AY22:AY35" si="48">AV22-AX22</f>
-        <v>2</v>
-      </c>
-      <c r="AZ22" s="20">
-        <f t="shared" ref="AZ22:AZ34" si="49">H22+K22+N22+Q22+T22+W22+Z22+AC22+AF22+AI22+AL22+AO22+AR22+AU22+AX22</f>
-        <v>0</v>
-      </c>
-      <c r="BA22" s="20">
-        <f t="shared" ref="BA22:BA35" si="50">G22-AZ22</f>
-        <v>2</v>
+        <f t="shared" ref="AY22:AY35" si="46">AV22-AX22</f>
+        <v>2</v>
+      </c>
+      <c r="AZ22" s="21">
+        <v>4.1435185185185186E-3</v>
+      </c>
+      <c r="BA22" s="18">
+        <f t="shared" ref="BA22:BA35" si="47">G22-AZ22</f>
+        <v>1.9958564814814814</v>
       </c>
     </row>
     <row r="23" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B23" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G23" s="12">
         <v>2</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12">
-        <f t="shared" ref="I23:I31" si="51">G23-H23</f>
-        <v>2</v>
-      </c>
-      <c r="J23" s="19"/>
+        <f t="shared" ref="I23:I31" si="48">G23-H23</f>
+        <v>2</v>
+      </c>
+      <c r="J23" s="17"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12">
-        <f t="shared" ref="L23:L31" si="52">I23-K23</f>
-        <v>2</v>
-      </c>
-      <c r="M23" s="19"/>
+        <f t="shared" ref="L23:L31" si="49">I23-K23</f>
+        <v>2</v>
+      </c>
+      <c r="M23" s="17"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12">
-        <f t="shared" ref="O23:O31" si="53">L23-N23</f>
-        <v>2</v>
-      </c>
-      <c r="P23" s="19"/>
+        <f t="shared" ref="O23:O31" si="50">L23-N23</f>
+        <v>2</v>
+      </c>
+      <c r="P23" s="17"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="12">
-        <f t="shared" ref="R23:R31" si="54">O23-Q23</f>
-        <v>2</v>
-      </c>
-      <c r="S23" s="19"/>
+        <f t="shared" ref="R23:R31" si="51">O23-Q23</f>
+        <v>2</v>
+      </c>
+      <c r="S23" s="17"/>
       <c r="T23" s="12"/>
       <c r="U23" s="12">
-        <f t="shared" ref="U23:U31" si="55">R23-T23</f>
-        <v>2</v>
-      </c>
-      <c r="V23" s="19"/>
+        <f t="shared" ref="U23:U31" si="52">R23-T23</f>
+        <v>2</v>
+      </c>
+      <c r="V23" s="17"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12">
-        <f t="shared" ref="X23:X31" si="56">U23-W23</f>
-        <v>2</v>
-      </c>
-      <c r="Y23" s="19"/>
+        <f t="shared" ref="X23:X30" si="53">U23-W23</f>
+        <v>2</v>
+      </c>
+      <c r="Y23" s="17"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12">
-        <f t="shared" ref="AA23:AA31" si="57">X23-Z23</f>
-        <v>2</v>
-      </c>
-      <c r="AB23" s="19"/>
+        <f t="shared" ref="AA23:AA31" si="54">X23-Z23</f>
+        <v>2</v>
+      </c>
+      <c r="AB23" s="17"/>
       <c r="AC23" s="12"/>
       <c r="AD23" s="12">
-        <f t="shared" ref="AD23:AD31" si="58">AA23-AC23</f>
-        <v>2</v>
-      </c>
-      <c r="AE23" s="19"/>
+        <f t="shared" ref="AD23:AD31" si="55">AA23-AC23</f>
+        <v>2</v>
+      </c>
+      <c r="AE23" s="17"/>
       <c r="AF23" s="12"/>
       <c r="AG23" s="12">
-        <f t="shared" ref="AG23:AG31" si="59">AD23-AF23</f>
-        <v>2</v>
-      </c>
-      <c r="AH23" s="19"/>
+        <f t="shared" ref="AG23:AG31" si="56">AD23-AF23</f>
+        <v>2</v>
+      </c>
+      <c r="AH23" s="17"/>
       <c r="AI23" s="12"/>
       <c r="AJ23" s="12">
-        <f t="shared" ref="AJ23:AJ31" si="60">AG23-AI23</f>
-        <v>2</v>
-      </c>
-      <c r="AK23" s="19"/>
+        <f t="shared" ref="AJ23:AJ31" si="57">AG23-AI23</f>
+        <v>2</v>
+      </c>
+      <c r="AK23" s="17"/>
       <c r="AL23" s="12"/>
       <c r="AM23" s="12">
-        <f t="shared" ref="AM23:AM31" si="61">AJ23-AL23</f>
-        <v>2</v>
-      </c>
-      <c r="AN23" s="19"/>
+        <f t="shared" ref="AM23:AM31" si="58">AJ23-AL23</f>
+        <v>2</v>
+      </c>
+      <c r="AN23" s="17"/>
       <c r="AO23" s="12"/>
       <c r="AP23" s="12">
-        <f t="shared" ref="AP23:AP31" si="62">AM23-AO23</f>
-        <v>2</v>
-      </c>
-      <c r="AQ23" s="19"/>
+        <f t="shared" ref="AP23:AP31" si="59">AM23-AO23</f>
+        <v>2</v>
+      </c>
+      <c r="AQ23" s="17"/>
       <c r="AR23" s="12"/>
       <c r="AS23" s="12">
-        <f t="shared" ref="AS23:AS31" si="63">AP23-AR23</f>
-        <v>2</v>
-      </c>
-      <c r="AT23" s="19"/>
+        <f t="shared" ref="AS23:AS31" si="60">AP23-AR23</f>
+        <v>2</v>
+      </c>
+      <c r="AT23" s="17"/>
       <c r="AU23" s="12"/>
       <c r="AV23" s="12">
-        <f t="shared" ref="AV23:AV31" si="64">AS23-AU23</f>
-        <v>2</v>
-      </c>
-      <c r="AW23" s="19"/>
+        <f t="shared" ref="AV23:AV31" si="61">AS23-AU23</f>
+        <v>2</v>
+      </c>
+      <c r="AW23" s="17"/>
       <c r="AX23" s="12"/>
       <c r="AY23" s="12">
-        <f t="shared" ref="AY23:AY31" si="65">AV23-AX23</f>
-        <v>2</v>
-      </c>
-      <c r="AZ23" s="20">
-        <f t="shared" ref="AZ23:AZ25" si="66">H23+K23+N23+Q23+T23+W23+Z23+AC23+AF23+AI23+AL23+AO23+AR23+AU23+AX23</f>
-        <v>0</v>
-      </c>
-      <c r="BA23" s="20">
-        <f t="shared" ref="BA23:BA31" si="67">G23-AZ23</f>
-        <v>2</v>
+        <f t="shared" ref="AY23:AY31" si="62">AV23-AX23</f>
+        <v>2</v>
+      </c>
+      <c r="AZ23" s="21">
+        <v>1.1400462962962965E-2</v>
+      </c>
+      <c r="BA23" s="18">
+        <f t="shared" ref="BA23:BA31" si="63">G23-AZ23</f>
+        <v>1.9885995370370371</v>
       </c>
     </row>
     <row r="24" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G24" s="12">
         <v>1</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="J24" s="19"/>
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="17"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="M24" s="19"/>
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="M24" s="17"/>
       <c r="N24" s="12"/>
       <c r="O24" s="12">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="P24" s="19"/>
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="P24" s="17"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="S24" s="19"/>
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="S24" s="17"/>
       <c r="T24" s="12"/>
       <c r="U24" s="12">
-        <f t="shared" si="55"/>
-        <v>1</v>
-      </c>
-      <c r="V24" s="19"/>
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="V24" s="17"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12">
-        <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="Y24" s="19"/>
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="Y24" s="17"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12">
-        <f t="shared" si="57"/>
-        <v>1</v>
-      </c>
-      <c r="AB24" s="19"/>
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="AB24" s="17"/>
       <c r="AC24" s="12"/>
       <c r="AD24" s="12">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="AE24" s="19"/>
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AE24" s="17"/>
       <c r="AF24" s="12"/>
       <c r="AG24" s="12">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="AH24" s="19"/>
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="AH24" s="17"/>
       <c r="AI24" s="12"/>
       <c r="AJ24" s="12">
-        <f t="shared" si="60"/>
-        <v>1</v>
-      </c>
-      <c r="AK24" s="19"/>
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="AK24" s="17"/>
       <c r="AL24" s="12"/>
       <c r="AM24" s="12">
-        <f t="shared" si="61"/>
-        <v>1</v>
-      </c>
-      <c r="AN24" s="19"/>
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="AN24" s="17"/>
       <c r="AO24" s="12"/>
       <c r="AP24" s="12">
-        <f t="shared" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="AQ24" s="19"/>
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="17"/>
       <c r="AR24" s="12"/>
       <c r="AS24" s="12">
-        <f t="shared" si="63"/>
-        <v>1</v>
-      </c>
-      <c r="AT24" s="19"/>
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="AT24" s="17"/>
       <c r="AU24" s="12"/>
       <c r="AV24" s="12">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="AW24" s="19"/>
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AW24" s="17"/>
       <c r="AX24" s="12"/>
       <c r="AY24" s="12">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="AZ24" s="20">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="BA24" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="21">
+        <v>1.1307870370370371E-2</v>
+      </c>
+      <c r="BA24" s="18">
+        <f t="shared" si="63"/>
+        <v>0.9886921296296296</v>
       </c>
     </row>
     <row r="25" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G25" s="12">
         <v>2</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12">
-        <f t="shared" si="51"/>
-        <v>2</v>
-      </c>
-      <c r="J25" s="19"/>
+        <f t="shared" si="48"/>
+        <v>2</v>
+      </c>
+      <c r="J25" s="17"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12">
-        <f t="shared" si="52"/>
-        <v>2</v>
-      </c>
-      <c r="M25" s="19"/>
+        <f t="shared" si="49"/>
+        <v>2</v>
+      </c>
+      <c r="M25" s="17"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12">
-        <f t="shared" si="53"/>
-        <v>2</v>
-      </c>
-      <c r="P25" s="19"/>
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="P25" s="17"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12">
-        <f t="shared" si="54"/>
-        <v>2</v>
-      </c>
-      <c r="S25" s="19"/>
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="S25" s="17"/>
       <c r="T25" s="12"/>
       <c r="U25" s="12">
-        <f t="shared" si="55"/>
-        <v>2</v>
-      </c>
-      <c r="V25" s="19"/>
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="V25" s="17"/>
       <c r="W25" s="12"/>
       <c r="X25" s="12">
-        <f t="shared" si="56"/>
-        <v>2</v>
-      </c>
-      <c r="Y25" s="19"/>
+        <f t="shared" si="53"/>
+        <v>2</v>
+      </c>
+      <c r="Y25" s="17"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12">
-        <f t="shared" si="57"/>
-        <v>2</v>
-      </c>
-      <c r="AB25" s="19"/>
+        <f t="shared" si="54"/>
+        <v>2</v>
+      </c>
+      <c r="AB25" s="17"/>
       <c r="AC25" s="12"/>
       <c r="AD25" s="12">
-        <f t="shared" si="58"/>
-        <v>2</v>
-      </c>
-      <c r="AE25" s="19"/>
+        <f t="shared" si="55"/>
+        <v>2</v>
+      </c>
+      <c r="AE25" s="17"/>
       <c r="AF25" s="12"/>
       <c r="AG25" s="12">
-        <f t="shared" si="59"/>
-        <v>2</v>
-      </c>
-      <c r="AH25" s="19"/>
+        <f t="shared" si="56"/>
+        <v>2</v>
+      </c>
+      <c r="AH25" s="17"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="12">
-        <f t="shared" si="60"/>
-        <v>2</v>
-      </c>
-      <c r="AK25" s="19"/>
+        <f t="shared" si="57"/>
+        <v>2</v>
+      </c>
+      <c r="AK25" s="17"/>
       <c r="AL25" s="12"/>
       <c r="AM25" s="12">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="AN25" s="19"/>
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AN25" s="17"/>
       <c r="AO25" s="12"/>
       <c r="AP25" s="12">
-        <f t="shared" si="62"/>
-        <v>2</v>
-      </c>
-      <c r="AQ25" s="19"/>
+        <f t="shared" si="59"/>
+        <v>2</v>
+      </c>
+      <c r="AQ25" s="17"/>
       <c r="AR25" s="12"/>
       <c r="AS25" s="12">
-        <f t="shared" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AT25" s="19"/>
+        <f t="shared" si="60"/>
+        <v>2</v>
+      </c>
+      <c r="AT25" s="17"/>
       <c r="AU25" s="12"/>
       <c r="AV25" s="12">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="AW25" s="19"/>
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AW25" s="17"/>
       <c r="AX25" s="12"/>
       <c r="AY25" s="12">
-        <f t="shared" si="65"/>
-        <v>2</v>
-      </c>
-      <c r="AZ25" s="20">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="BA25" s="20">
-        <f t="shared" si="67"/>
-        <v>2</v>
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="AZ25" s="21">
+        <v>8.8888888888888889E-3</v>
+      </c>
+      <c r="BA25" s="18">
+        <f t="shared" si="63"/>
+        <v>1.9911111111111111</v>
       </c>
     </row>
     <row r="26" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G26" s="12">
         <v>2</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12">
-        <f t="shared" si="51"/>
-        <v>2</v>
-      </c>
-      <c r="J26" s="19"/>
+        <f t="shared" si="48"/>
+        <v>2</v>
+      </c>
+      <c r="J26" s="17"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12">
-        <f t="shared" si="52"/>
-        <v>2</v>
-      </c>
-      <c r="M26" s="19"/>
+        <f t="shared" si="49"/>
+        <v>2</v>
+      </c>
+      <c r="M26" s="17"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12">
-        <f t="shared" si="53"/>
-        <v>2</v>
-      </c>
-      <c r="P26" s="19"/>
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="P26" s="17"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="12">
-        <f t="shared" si="54"/>
-        <v>2</v>
-      </c>
-      <c r="S26" s="19"/>
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="S26" s="17"/>
       <c r="T26" s="12"/>
       <c r="U26" s="12">
-        <f t="shared" si="55"/>
-        <v>2</v>
-      </c>
-      <c r="V26" s="19"/>
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="V26" s="17"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12">
-        <f t="shared" si="56"/>
-        <v>2</v>
-      </c>
-      <c r="Y26" s="19"/>
+        <f t="shared" si="53"/>
+        <v>2</v>
+      </c>
+      <c r="Y26" s="17"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12">
-        <f t="shared" si="57"/>
-        <v>2</v>
-      </c>
-      <c r="AB26" s="19"/>
+        <f t="shared" si="54"/>
+        <v>2</v>
+      </c>
+      <c r="AB26" s="17"/>
       <c r="AC26" s="12"/>
       <c r="AD26" s="12">
-        <f t="shared" si="58"/>
-        <v>2</v>
-      </c>
-      <c r="AE26" s="19"/>
+        <f t="shared" si="55"/>
+        <v>2</v>
+      </c>
+      <c r="AE26" s="17"/>
       <c r="AF26" s="12"/>
       <c r="AG26" s="12">
-        <f t="shared" si="59"/>
-        <v>2</v>
-      </c>
-      <c r="AH26" s="19"/>
+        <f t="shared" si="56"/>
+        <v>2</v>
+      </c>
+      <c r="AH26" s="17"/>
       <c r="AI26" s="12"/>
       <c r="AJ26" s="12">
-        <f t="shared" si="60"/>
-        <v>2</v>
-      </c>
-      <c r="AK26" s="19"/>
+        <f t="shared" si="57"/>
+        <v>2</v>
+      </c>
+      <c r="AK26" s="17"/>
       <c r="AL26" s="12"/>
       <c r="AM26" s="12">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="AN26" s="19"/>
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AN26" s="17"/>
       <c r="AO26" s="12"/>
       <c r="AP26" s="12">
-        <f t="shared" si="62"/>
-        <v>2</v>
-      </c>
-      <c r="AQ26" s="19"/>
+        <f t="shared" si="59"/>
+        <v>2</v>
+      </c>
+      <c r="AQ26" s="17"/>
       <c r="AR26" s="12"/>
       <c r="AS26" s="12">
-        <f t="shared" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AT26" s="19"/>
+        <f t="shared" si="60"/>
+        <v>2</v>
+      </c>
+      <c r="AT26" s="17"/>
       <c r="AU26" s="12"/>
       <c r="AV26" s="12">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="AW26" s="19"/>
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AW26" s="17"/>
       <c r="AX26" s="12"/>
       <c r="AY26" s="12">
-        <f t="shared" si="65"/>
-        <v>2</v>
-      </c>
-      <c r="AZ26" s="20" t="e">
-        <f>H26+K26+N26+Q26+T26+W26+Z26+AC26+AF26+AI26+AL26+AO26+AR26+AU26+AX26+#REF!+#REF!+#REF!+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BA26" s="20" t="e">
-        <f t="shared" si="67"/>
-        <v>#REF!</v>
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="AZ26" s="21">
+        <v>7.789351851851852E-3</v>
+      </c>
+      <c r="BA26" s="18">
+        <f t="shared" si="63"/>
+        <v>1.9922106481481481</v>
       </c>
     </row>
     <row r="27" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B27" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G27" s="12">
         <v>2</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12">
-        <f t="shared" si="51"/>
-        <v>2</v>
-      </c>
-      <c r="J27" s="19"/>
+        <f t="shared" si="48"/>
+        <v>2</v>
+      </c>
+      <c r="J27" s="17"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12">
-        <f t="shared" si="52"/>
-        <v>2</v>
-      </c>
-      <c r="M27" s="19"/>
+        <f t="shared" si="49"/>
+        <v>2</v>
+      </c>
+      <c r="M27" s="17"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12">
-        <f t="shared" si="53"/>
-        <v>2</v>
-      </c>
-      <c r="P27" s="19"/>
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="P27" s="17"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12">
-        <f t="shared" si="54"/>
-        <v>2</v>
-      </c>
-      <c r="S27" s="19"/>
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="S27" s="17"/>
       <c r="T27" s="12"/>
       <c r="U27" s="12">
-        <f t="shared" si="55"/>
-        <v>2</v>
-      </c>
-      <c r="V27" s="19"/>
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="V27" s="17"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12">
-        <f t="shared" si="56"/>
-        <v>2</v>
-      </c>
-      <c r="Y27" s="19"/>
+        <f t="shared" si="53"/>
+        <v>2</v>
+      </c>
+      <c r="Y27" s="17"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12">
-        <f t="shared" si="57"/>
-        <v>2</v>
-      </c>
-      <c r="AB27" s="19"/>
+        <f t="shared" si="54"/>
+        <v>2</v>
+      </c>
+      <c r="AB27" s="17"/>
       <c r="AC27" s="12"/>
       <c r="AD27" s="12">
-        <f t="shared" si="58"/>
-        <v>2</v>
-      </c>
-      <c r="AE27" s="19"/>
+        <f t="shared" si="55"/>
+        <v>2</v>
+      </c>
+      <c r="AE27" s="17"/>
       <c r="AF27" s="12"/>
       <c r="AG27" s="12">
-        <f t="shared" si="59"/>
-        <v>2</v>
-      </c>
-      <c r="AH27" s="19"/>
+        <f t="shared" si="56"/>
+        <v>2</v>
+      </c>
+      <c r="AH27" s="17"/>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="12">
-        <f t="shared" si="60"/>
-        <v>2</v>
-      </c>
-      <c r="AK27" s="19"/>
+        <f t="shared" si="57"/>
+        <v>2</v>
+      </c>
+      <c r="AK27" s="17"/>
       <c r="AL27" s="12"/>
       <c r="AM27" s="12">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="AN27" s="19"/>
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AN27" s="17"/>
       <c r="AO27" s="12"/>
       <c r="AP27" s="12">
-        <f t="shared" si="62"/>
-        <v>2</v>
-      </c>
-      <c r="AQ27" s="19"/>
+        <f t="shared" si="59"/>
+        <v>2</v>
+      </c>
+      <c r="AQ27" s="17"/>
       <c r="AR27" s="12"/>
       <c r="AS27" s="12">
-        <f t="shared" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AT27" s="19"/>
+        <f t="shared" si="60"/>
+        <v>2</v>
+      </c>
+      <c r="AT27" s="17"/>
       <c r="AU27" s="12"/>
       <c r="AV27" s="12">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="AW27" s="19"/>
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AW27" s="17"/>
       <c r="AX27" s="12"/>
       <c r="AY27" s="12">
-        <f t="shared" si="65"/>
-        <v>2</v>
-      </c>
-      <c r="AZ27" s="20">
-        <f t="shared" ref="AZ27:AZ30" si="68">H27+K27+N27+Q27+T27+W27+Z27+AC27+AF27+AI27+AL27+AO27+AR27+AU27+AX27</f>
-        <v>0</v>
-      </c>
-      <c r="BA27" s="20">
-        <f t="shared" si="67"/>
-        <v>2</v>
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="AZ27" s="21">
+        <v>9.2939814814814812E-3</v>
+      </c>
+      <c r="BA27" s="18">
+        <f t="shared" si="63"/>
+        <v>1.9907060185185186</v>
       </c>
     </row>
     <row r="28" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G28" s="12">
         <v>1</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="J28" s="19"/>
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="J28" s="17"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="M28" s="19"/>
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="17"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="P28" s="19"/>
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="P28" s="17"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="S28" s="19"/>
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="S28" s="17"/>
       <c r="T28" s="12"/>
       <c r="U28" s="12">
-        <f t="shared" si="55"/>
-        <v>1</v>
-      </c>
-      <c r="V28" s="19"/>
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="V28" s="17"/>
       <c r="W28" s="12"/>
       <c r="X28" s="12">
-        <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="Y28" s="19"/>
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="17"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12">
-        <f t="shared" si="57"/>
-        <v>1</v>
-      </c>
-      <c r="AB28" s="19"/>
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="AB28" s="17"/>
       <c r="AC28" s="12"/>
       <c r="AD28" s="12">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="AE28" s="19"/>
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="AE28" s="17"/>
       <c r="AF28" s="12"/>
       <c r="AG28" s="12">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="AH28" s="19"/>
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="AH28" s="17"/>
       <c r="AI28" s="12"/>
       <c r="AJ28" s="12">
-        <f t="shared" si="60"/>
-        <v>1</v>
-      </c>
-      <c r="AK28" s="19"/>
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="AK28" s="17"/>
       <c r="AL28" s="12"/>
       <c r="AM28" s="12">
-        <f t="shared" si="61"/>
-        <v>1</v>
-      </c>
-      <c r="AN28" s="19"/>
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="AN28" s="17"/>
       <c r="AO28" s="12"/>
       <c r="AP28" s="12">
-        <f t="shared" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="AQ28" s="19"/>
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="17"/>
       <c r="AR28" s="12"/>
       <c r="AS28" s="12">
-        <f t="shared" si="63"/>
-        <v>1</v>
-      </c>
-      <c r="AT28" s="19"/>
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="AT28" s="17"/>
       <c r="AU28" s="12"/>
       <c r="AV28" s="12">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="AW28" s="19"/>
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="AW28" s="17"/>
       <c r="AX28" s="12"/>
       <c r="AY28" s="12">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="AZ28" s="20">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="BA28" s="20">
-        <f t="shared" si="67"/>
-        <v>1</v>
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="AZ28" s="21">
+        <v>6.5277777777777782E-3</v>
+      </c>
+      <c r="BA28" s="18">
+        <f t="shared" si="63"/>
+        <v>0.9934722222222222</v>
       </c>
     </row>
     <row r="29" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G29" s="12">
         <v>2</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12">
-        <f t="shared" si="51"/>
-        <v>2</v>
-      </c>
-      <c r="J29" s="19"/>
+        <f t="shared" si="48"/>
+        <v>2</v>
+      </c>
+      <c r="J29" s="17"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12">
-        <f t="shared" si="52"/>
-        <v>2</v>
-      </c>
-      <c r="M29" s="19"/>
+        <f t="shared" si="49"/>
+        <v>2</v>
+      </c>
+      <c r="M29" s="17"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12">
-        <f t="shared" si="53"/>
-        <v>2</v>
-      </c>
-      <c r="P29" s="19"/>
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="P29" s="17"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12">
-        <f t="shared" si="54"/>
-        <v>2</v>
-      </c>
-      <c r="S29" s="19"/>
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="S29" s="17"/>
       <c r="T29" s="12"/>
       <c r="U29" s="12">
-        <f t="shared" si="55"/>
-        <v>2</v>
-      </c>
-      <c r="V29" s="19"/>
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="V29" s="17"/>
       <c r="W29" s="12"/>
       <c r="X29" s="12">
-        <f t="shared" si="56"/>
-        <v>2</v>
-      </c>
-      <c r="Y29" s="19"/>
+        <f t="shared" si="53"/>
+        <v>2</v>
+      </c>
+      <c r="Y29" s="17"/>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12">
-        <f t="shared" si="57"/>
-        <v>2</v>
-      </c>
-      <c r="AB29" s="19"/>
+        <f t="shared" si="54"/>
+        <v>2</v>
+      </c>
+      <c r="AB29" s="17"/>
       <c r="AC29" s="12"/>
       <c r="AD29" s="12">
-        <f t="shared" si="58"/>
-        <v>2</v>
-      </c>
-      <c r="AE29" s="19"/>
+        <f t="shared" si="55"/>
+        <v>2</v>
+      </c>
+      <c r="AE29" s="17"/>
       <c r="AF29" s="12"/>
       <c r="AG29" s="12">
-        <f t="shared" si="59"/>
-        <v>2</v>
-      </c>
-      <c r="AH29" s="19"/>
+        <f t="shared" si="56"/>
+        <v>2</v>
+      </c>
+      <c r="AH29" s="17"/>
       <c r="AI29" s="12"/>
       <c r="AJ29" s="12">
-        <f t="shared" si="60"/>
-        <v>2</v>
-      </c>
-      <c r="AK29" s="19"/>
+        <f t="shared" si="57"/>
+        <v>2</v>
+      </c>
+      <c r="AK29" s="17"/>
       <c r="AL29" s="12"/>
       <c r="AM29" s="12">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="AN29" s="19"/>
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AN29" s="17"/>
       <c r="AO29" s="12"/>
       <c r="AP29" s="12">
-        <f t="shared" si="62"/>
-        <v>2</v>
-      </c>
-      <c r="AQ29" s="19"/>
+        <f t="shared" si="59"/>
+        <v>2</v>
+      </c>
+      <c r="AQ29" s="17"/>
       <c r="AR29" s="12"/>
       <c r="AS29" s="12">
-        <f t="shared" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AT29" s="19"/>
+        <f t="shared" si="60"/>
+        <v>2</v>
+      </c>
+      <c r="AT29" s="17"/>
       <c r="AU29" s="12"/>
       <c r="AV29" s="12">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="AW29" s="19"/>
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AW29" s="17"/>
       <c r="AX29" s="12"/>
       <c r="AY29" s="12">
-        <f t="shared" si="65"/>
-        <v>2</v>
-      </c>
-      <c r="AZ29" s="20">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="BA29" s="20">
-        <f t="shared" si="67"/>
-        <v>2</v>
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="AZ29" s="21">
+        <v>3.0787037037037037E-3</v>
+      </c>
+      <c r="BA29" s="18">
+        <f t="shared" si="63"/>
+        <v>1.9969212962962963</v>
       </c>
     </row>
     <row r="30" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G30" s="12">
         <v>2</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12">
-        <f t="shared" si="51"/>
-        <v>2</v>
-      </c>
-      <c r="J30" s="19"/>
+        <f t="shared" si="48"/>
+        <v>2</v>
+      </c>
+      <c r="J30" s="17"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12">
-        <f t="shared" si="52"/>
-        <v>2</v>
-      </c>
-      <c r="M30" s="19"/>
+        <f t="shared" si="49"/>
+        <v>2</v>
+      </c>
+      <c r="M30" s="17"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12">
-        <f t="shared" si="53"/>
-        <v>2</v>
-      </c>
-      <c r="P30" s="19"/>
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="P30" s="17"/>
       <c r="Q30" s="12"/>
       <c r="R30" s="12">
-        <f t="shared" si="54"/>
-        <v>2</v>
-      </c>
-      <c r="S30" s="19"/>
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="S30" s="17"/>
       <c r="T30" s="12"/>
       <c r="U30" s="12">
-        <f t="shared" si="55"/>
-        <v>2</v>
-      </c>
-      <c r="V30" s="19"/>
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="V30" s="17"/>
       <c r="W30" s="12"/>
       <c r="X30" s="12">
-        <f t="shared" si="56"/>
-        <v>2</v>
-      </c>
-      <c r="Y30" s="19"/>
+        <f t="shared" si="53"/>
+        <v>2</v>
+      </c>
+      <c r="Y30" s="17"/>
       <c r="Z30" s="12"/>
       <c r="AA30" s="12">
-        <f t="shared" si="57"/>
-        <v>2</v>
-      </c>
-      <c r="AB30" s="19"/>
+        <f t="shared" si="54"/>
+        <v>2</v>
+      </c>
+      <c r="AB30" s="17"/>
       <c r="AC30" s="12"/>
       <c r="AD30" s="12">
-        <f t="shared" si="58"/>
-        <v>2</v>
-      </c>
-      <c r="AE30" s="19"/>
+        <f t="shared" si="55"/>
+        <v>2</v>
+      </c>
+      <c r="AE30" s="17"/>
       <c r="AF30" s="12"/>
       <c r="AG30" s="12">
-        <f t="shared" si="59"/>
-        <v>2</v>
-      </c>
-      <c r="AH30" s="19"/>
+        <f t="shared" si="56"/>
+        <v>2</v>
+      </c>
+      <c r="AH30" s="17"/>
       <c r="AI30" s="12"/>
       <c r="AJ30" s="12">
-        <f t="shared" si="60"/>
-        <v>2</v>
-      </c>
-      <c r="AK30" s="19"/>
+        <f t="shared" si="57"/>
+        <v>2</v>
+      </c>
+      <c r="AK30" s="17"/>
       <c r="AL30" s="12"/>
       <c r="AM30" s="12">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="AN30" s="19"/>
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AN30" s="17"/>
       <c r="AO30" s="12"/>
       <c r="AP30" s="12">
-        <f t="shared" si="62"/>
-        <v>2</v>
-      </c>
-      <c r="AQ30" s="19"/>
+        <f t="shared" si="59"/>
+        <v>2</v>
+      </c>
+      <c r="AQ30" s="17"/>
       <c r="AR30" s="12"/>
       <c r="AS30" s="12">
-        <f t="shared" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AT30" s="19"/>
+        <f t="shared" si="60"/>
+        <v>2</v>
+      </c>
+      <c r="AT30" s="17"/>
       <c r="AU30" s="12"/>
       <c r="AV30" s="12">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="AW30" s="19"/>
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AW30" s="17"/>
       <c r="AX30" s="12"/>
       <c r="AY30" s="12">
-        <f t="shared" si="65"/>
-        <v>2</v>
-      </c>
-      <c r="AZ30" s="20">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="BA30" s="20">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="AZ30" s="18"/>
+      <c r="BA30" s="18">
+        <f t="shared" si="63"/>
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B31" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G31" s="12">
         <v>2</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12">
-        <f t="shared" si="51"/>
-        <v>2</v>
-      </c>
-      <c r="J31" s="19"/>
+        <f t="shared" si="48"/>
+        <v>2</v>
+      </c>
+      <c r="J31" s="17"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12">
-        <f t="shared" si="52"/>
-        <v>2</v>
-      </c>
-      <c r="M31" s="19"/>
+        <f t="shared" si="49"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="17"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12">
-        <f t="shared" si="53"/>
-        <v>2</v>
-      </c>
-      <c r="P31" s="19"/>
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="P31" s="17"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12">
-        <f t="shared" si="54"/>
-        <v>2</v>
-      </c>
-      <c r="S31" s="19"/>
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="S31" s="17"/>
       <c r="T31" s="12"/>
       <c r="U31" s="12">
-        <f t="shared" si="55"/>
-        <v>2</v>
-      </c>
-      <c r="V31" s="19"/>
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="V31" s="17"/>
       <c r="W31" s="12"/>
       <c r="X31" s="12">
-        <f t="shared" si="56"/>
-        <v>2</v>
-      </c>
-      <c r="Y31" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="Y31" s="17"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12">
-        <f t="shared" si="57"/>
-        <v>2</v>
-      </c>
-      <c r="AB31" s="19"/>
+        <f t="shared" si="54"/>
+        <v>2</v>
+      </c>
+      <c r="AB31" s="17"/>
       <c r="AC31" s="12"/>
       <c r="AD31" s="12">
-        <f t="shared" si="58"/>
-        <v>2</v>
-      </c>
-      <c r="AE31" s="19"/>
+        <f t="shared" si="55"/>
+        <v>2</v>
+      </c>
+      <c r="AE31" s="17"/>
       <c r="AF31" s="12"/>
       <c r="AG31" s="12">
-        <f t="shared" si="59"/>
-        <v>2</v>
-      </c>
-      <c r="AH31" s="19"/>
+        <f t="shared" si="56"/>
+        <v>2</v>
+      </c>
+      <c r="AH31" s="17"/>
       <c r="AI31" s="12"/>
       <c r="AJ31" s="12">
-        <f t="shared" si="60"/>
-        <v>2</v>
-      </c>
-      <c r="AK31" s="19"/>
+        <f t="shared" si="57"/>
+        <v>2</v>
+      </c>
+      <c r="AK31" s="17"/>
       <c r="AL31" s="12"/>
       <c r="AM31" s="12">
-        <f t="shared" si="61"/>
-        <v>2</v>
-      </c>
-      <c r="AN31" s="19"/>
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+      <c r="AN31" s="17"/>
       <c r="AO31" s="12"/>
       <c r="AP31" s="12">
-        <f t="shared" si="62"/>
-        <v>2</v>
-      </c>
-      <c r="AQ31" s="19"/>
+        <f t="shared" si="59"/>
+        <v>2</v>
+      </c>
+      <c r="AQ31" s="17"/>
       <c r="AR31" s="12"/>
       <c r="AS31" s="12">
-        <f t="shared" si="63"/>
-        <v>2</v>
-      </c>
-      <c r="AT31" s="19"/>
+        <f t="shared" si="60"/>
+        <v>2</v>
+      </c>
+      <c r="AT31" s="17"/>
       <c r="AU31" s="12"/>
       <c r="AV31" s="12">
-        <f t="shared" si="64"/>
-        <v>2</v>
-      </c>
-      <c r="AW31" s="19"/>
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="AW31" s="17"/>
       <c r="AX31" s="12"/>
       <c r="AY31" s="12">
-        <f t="shared" si="65"/>
-        <v>2</v>
-      </c>
-      <c r="AZ31" s="20" t="e">
-        <f>H31+K31+N31+Q31+T31+W31+Z31+AC31+AF31+AI31+AL31+AO31+AR31+AU31+AX31+#REF!+#REF!+#REF!+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BA31" s="20" t="e">
-        <f t="shared" si="67"/>
-        <v>#REF!</v>
+        <f t="shared" si="62"/>
+        <v>2</v>
+      </c>
+      <c r="AZ31" s="21">
+        <v>4.6296296296296302E-3</v>
+      </c>
+      <c r="BA31" s="18">
+        <f t="shared" si="63"/>
+        <v>1.9953703703703705</v>
       </c>
     </row>
     <row r="32" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G32" s="12">
         <v>1</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="J32" s="19"/>
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="17"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="M32" s="19"/>
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="M32" s="17"/>
       <c r="N32" s="12"/>
       <c r="O32" s="12">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="P32" s="19"/>
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="P32" s="17"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="12">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="S32" s="19"/>
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="S32" s="17"/>
       <c r="T32" s="12"/>
       <c r="U32" s="12">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="V32" s="19"/>
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="V32" s="17"/>
       <c r="W32" s="12"/>
       <c r="X32" s="12">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="Y32" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="Y32" s="17"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="AB32" s="19"/>
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="AB32" s="17"/>
       <c r="AC32" s="12"/>
       <c r="AD32" s="12">
-        <f t="shared" si="41"/>
-        <v>1</v>
-      </c>
-      <c r="AE32" s="19"/>
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="AE32" s="17"/>
       <c r="AF32" s="12"/>
       <c r="AG32" s="12">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="AH32" s="19"/>
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="AH32" s="17"/>
       <c r="AI32" s="12"/>
       <c r="AJ32" s="12">
-        <f t="shared" si="43"/>
-        <v>1</v>
-      </c>
-      <c r="AK32" s="19"/>
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="AK32" s="17"/>
       <c r="AL32" s="12"/>
       <c r="AM32" s="12">
-        <f t="shared" si="44"/>
-        <v>1</v>
-      </c>
-      <c r="AN32" s="19"/>
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="AN32" s="17"/>
       <c r="AO32" s="12"/>
       <c r="AP32" s="12">
-        <f t="shared" si="45"/>
-        <v>1</v>
-      </c>
-      <c r="AQ32" s="19"/>
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="17"/>
       <c r="AR32" s="12"/>
       <c r="AS32" s="12">
-        <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="AT32" s="19"/>
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AT32" s="17"/>
       <c r="AU32" s="12"/>
       <c r="AV32" s="12">
-        <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="AW32" s="19"/>
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="AW32" s="17"/>
       <c r="AX32" s="12"/>
       <c r="AY32" s="12">
-        <f t="shared" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="AZ32" s="20">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="BA32" s="20">
-        <f t="shared" si="50"/>
-        <v>1</v>
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="AZ32" s="21">
+        <v>2.685185185185185E-3</v>
+      </c>
+      <c r="BA32" s="18">
+        <f t="shared" si="47"/>
+        <v>0.99731481481481477</v>
       </c>
     </row>
     <row r="33" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G33" s="12">
         <v>2</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="J33" s="19"/>
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="J33" s="17"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12">
-        <f t="shared" si="35"/>
-        <v>2</v>
-      </c>
-      <c r="M33" s="19"/>
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="M33" s="17"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12">
-        <f t="shared" si="36"/>
-        <v>2</v>
-      </c>
-      <c r="P33" s="19"/>
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="P33" s="17"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12">
-        <f t="shared" si="37"/>
-        <v>2</v>
-      </c>
-      <c r="S33" s="19"/>
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="S33" s="17"/>
       <c r="T33" s="12"/>
       <c r="U33" s="12">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="V33" s="19"/>
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="V33" s="17"/>
       <c r="W33" s="12"/>
       <c r="X33" s="12">
-        <f t="shared" si="39"/>
-        <v>2</v>
-      </c>
-      <c r="Y33" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="Y33" s="17"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12">
-        <f t="shared" si="40"/>
-        <v>2</v>
-      </c>
-      <c r="AB33" s="19"/>
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="AB33" s="17"/>
       <c r="AC33" s="12"/>
       <c r="AD33" s="12">
-        <f t="shared" si="41"/>
-        <v>2</v>
-      </c>
-      <c r="AE33" s="19"/>
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="AE33" s="17"/>
       <c r="AF33" s="12"/>
       <c r="AG33" s="12">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
-      <c r="AH33" s="19"/>
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="AH33" s="17"/>
       <c r="AI33" s="12"/>
       <c r="AJ33" s="12">
-        <f t="shared" si="43"/>
-        <v>2</v>
-      </c>
-      <c r="AK33" s="19"/>
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="AK33" s="17"/>
       <c r="AL33" s="12"/>
       <c r="AM33" s="12">
-        <f t="shared" si="44"/>
-        <v>2</v>
-      </c>
-      <c r="AN33" s="19"/>
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AN33" s="17"/>
       <c r="AO33" s="12"/>
       <c r="AP33" s="12">
-        <f t="shared" si="45"/>
-        <v>2</v>
-      </c>
-      <c r="AQ33" s="19"/>
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="AQ33" s="17"/>
       <c r="AR33" s="12"/>
       <c r="AS33" s="12">
-        <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="AT33" s="19"/>
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="AT33" s="17"/>
       <c r="AU33" s="12"/>
       <c r="AV33" s="12">
-        <f t="shared" si="47"/>
-        <v>2</v>
-      </c>
-      <c r="AW33" s="19"/>
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="AW33" s="17"/>
       <c r="AX33" s="12"/>
       <c r="AY33" s="12">
-        <f t="shared" si="48"/>
-        <v>2</v>
-      </c>
-      <c r="AZ33" s="20">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="BA33" s="20">
-        <f t="shared" si="50"/>
-        <v>2</v>
+        <f t="shared" si="46"/>
+        <v>2</v>
+      </c>
+      <c r="AZ33" s="21">
+        <v>7.2685185185185188E-3</v>
+      </c>
+      <c r="BA33" s="18">
+        <f t="shared" si="47"/>
+        <v>1.9927314814814814</v>
       </c>
     </row>
     <row r="34" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G34" s="12">
         <v>2</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="12">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="J34" s="19"/>
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="J34" s="17"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12">
-        <f t="shared" si="35"/>
-        <v>2</v>
-      </c>
-      <c r="M34" s="19"/>
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="M34" s="17"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12">
-        <f t="shared" si="36"/>
-        <v>2</v>
-      </c>
-      <c r="P34" s="19"/>
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="P34" s="17"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12">
-        <f t="shared" si="37"/>
-        <v>2</v>
-      </c>
-      <c r="S34" s="19"/>
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="S34" s="17"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="V34" s="19"/>
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="V34" s="17"/>
       <c r="W34" s="12"/>
       <c r="X34" s="12">
-        <f t="shared" si="39"/>
-        <v>2</v>
-      </c>
-      <c r="Y34" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="Y34" s="17"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12">
-        <f t="shared" si="40"/>
-        <v>2</v>
-      </c>
-      <c r="AB34" s="19"/>
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="AB34" s="17"/>
       <c r="AC34" s="12"/>
       <c r="AD34" s="12">
-        <f t="shared" si="41"/>
-        <v>2</v>
-      </c>
-      <c r="AE34" s="19"/>
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="AE34" s="17"/>
       <c r="AF34" s="12"/>
       <c r="AG34" s="12">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
-      <c r="AH34" s="19"/>
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="AH34" s="17"/>
       <c r="AI34" s="12"/>
       <c r="AJ34" s="12">
-        <f t="shared" si="43"/>
-        <v>2</v>
-      </c>
-      <c r="AK34" s="19"/>
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="AK34" s="17"/>
       <c r="AL34" s="12"/>
       <c r="AM34" s="12">
-        <f t="shared" si="44"/>
-        <v>2</v>
-      </c>
-      <c r="AN34" s="19"/>
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AN34" s="17"/>
       <c r="AO34" s="12"/>
       <c r="AP34" s="12">
-        <f t="shared" si="45"/>
-        <v>2</v>
-      </c>
-      <c r="AQ34" s="19"/>
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="AQ34" s="17"/>
       <c r="AR34" s="12"/>
       <c r="AS34" s="12">
-        <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="AT34" s="19"/>
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="AT34" s="17"/>
       <c r="AU34" s="12"/>
       <c r="AV34" s="12">
-        <f t="shared" si="47"/>
-        <v>2</v>
-      </c>
-      <c r="AW34" s="19"/>
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="AW34" s="17"/>
       <c r="AX34" s="12"/>
       <c r="AY34" s="12">
-        <f t="shared" si="48"/>
-        <v>2</v>
-      </c>
-      <c r="AZ34" s="20">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="BA34" s="20">
-        <f t="shared" si="50"/>
-        <v>2</v>
+        <f t="shared" si="46"/>
+        <v>2</v>
+      </c>
+      <c r="AZ34" s="21">
+        <v>1.0810185185185185E-2</v>
+      </c>
+      <c r="BA34" s="18">
+        <f t="shared" si="47"/>
+        <v>1.9891898148148148</v>
       </c>
     </row>
     <row r="35" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B35" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G35" s="12">
         <v>2</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="J35" s="19"/>
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="J35" s="17"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12">
-        <f t="shared" si="35"/>
-        <v>2</v>
-      </c>
-      <c r="M35" s="19"/>
+        <f t="shared" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="M35" s="17"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12">
-        <f t="shared" si="36"/>
-        <v>2</v>
-      </c>
-      <c r="P35" s="19"/>
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="P35" s="17"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12">
-        <f t="shared" si="37"/>
-        <v>2</v>
-      </c>
-      <c r="S35" s="19"/>
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="S35" s="17"/>
       <c r="T35" s="12"/>
       <c r="U35" s="12">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="V35" s="19"/>
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="V35" s="17"/>
       <c r="W35" s="12"/>
       <c r="X35" s="12">
-        <f t="shared" si="39"/>
-        <v>2</v>
-      </c>
-      <c r="Y35" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="Y35" s="17"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12">
-        <f t="shared" si="40"/>
-        <v>2</v>
-      </c>
-      <c r="AB35" s="19"/>
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="AB35" s="17"/>
       <c r="AC35" s="12"/>
       <c r="AD35" s="12">
-        <f t="shared" si="41"/>
-        <v>2</v>
-      </c>
-      <c r="AE35" s="19"/>
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="AE35" s="17"/>
       <c r="AF35" s="12"/>
       <c r="AG35" s="12">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
-      <c r="AH35" s="19"/>
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="AH35" s="17"/>
       <c r="AI35" s="12"/>
       <c r="AJ35" s="12">
-        <f t="shared" si="43"/>
-        <v>2</v>
-      </c>
-      <c r="AK35" s="19"/>
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="AK35" s="17"/>
       <c r="AL35" s="12"/>
       <c r="AM35" s="12">
-        <f t="shared" si="44"/>
-        <v>2</v>
-      </c>
-      <c r="AN35" s="19"/>
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AN35" s="17"/>
       <c r="AO35" s="12"/>
       <c r="AP35" s="12">
-        <f t="shared" si="45"/>
-        <v>2</v>
-      </c>
-      <c r="AQ35" s="19"/>
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="AQ35" s="17"/>
       <c r="AR35" s="12"/>
       <c r="AS35" s="12">
-        <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="AT35" s="19"/>
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="AT35" s="17"/>
       <c r="AU35" s="12"/>
       <c r="AV35" s="12">
-        <f t="shared" si="47"/>
-        <v>2</v>
-      </c>
-      <c r="AW35" s="19"/>
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="AW35" s="17"/>
       <c r="AX35" s="12"/>
       <c r="AY35" s="12">
-        <f t="shared" si="48"/>
-        <v>2</v>
-      </c>
-      <c r="AZ35" s="20" t="e">
-        <f>H35+K35+N35+Q35+T35+W35+Z35+AC35+AF35+AI35+AL35+AO35+AR35+AU35+AX35+#REF!+#REF!+#REF!+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BA35" s="20" t="e">
-        <f t="shared" si="50"/>
-        <v>#REF!</v>
+        <f t="shared" si="46"/>
+        <v>2</v>
+      </c>
+      <c r="AZ35" s="21">
+        <v>4.6874999999999998E-3</v>
+      </c>
+      <c r="BA35" s="18">
+        <f t="shared" si="47"/>
+        <v>1.9953125</v>
       </c>
     </row>
     <row r="36" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G36" s="12">
         <v>1</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="J36" s="19"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J36" s="17"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M36" s="19"/>
+      <c r="M36" s="17"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P36" s="19"/>
+      <c r="P36" s="17"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S36" s="19"/>
+      <c r="S36" s="17"/>
       <c r="T36" s="12"/>
       <c r="U36" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V36" s="19"/>
+      <c r="V36" s="17"/>
       <c r="W36" s="12"/>
       <c r="X36" s="12">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Y36" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="Y36" s="17"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AB36" s="19"/>
+      <c r="AB36" s="17"/>
       <c r="AC36" s="12"/>
       <c r="AD36" s="12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AE36" s="19"/>
+      <c r="AE36" s="17"/>
       <c r="AF36" s="12"/>
       <c r="AG36" s="12">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AH36" s="19"/>
+      <c r="AH36" s="17"/>
       <c r="AI36" s="12"/>
       <c r="AJ36" s="12">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK36" s="19"/>
+      <c r="AK36" s="17"/>
       <c r="AL36" s="12"/>
       <c r="AM36" s="12">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AN36" s="19"/>
+      <c r="AN36" s="17"/>
       <c r="AO36" s="12"/>
       <c r="AP36" s="12">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AQ36" s="19"/>
+      <c r="AQ36" s="17"/>
       <c r="AR36" s="12"/>
       <c r="AS36" s="12">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AT36" s="19"/>
+      <c r="AT36" s="17"/>
       <c r="AU36" s="12"/>
       <c r="AV36" s="12">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AW36" s="19"/>
+      <c r="AW36" s="17"/>
       <c r="AX36" s="12"/>
       <c r="AY36" s="12">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AZ36" s="20">
+      <c r="AZ36" s="21">
+        <v>4.155092592592593E-3</v>
+      </c>
+      <c r="BA36" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BA36" s="20">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0.99584490740740739</v>
       </c>
     </row>
     <row r="37" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G37" s="12">
         <v>2</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12">
-        <f t="shared" ref="I37" si="69">G37-H37</f>
-        <v>2</v>
-      </c>
-      <c r="J37" s="19"/>
+        <f t="shared" ref="I37" si="64">G37-H37</f>
+        <v>2</v>
+      </c>
+      <c r="J37" s="17"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12">
-        <f t="shared" ref="L37" si="70">I37-K37</f>
-        <v>2</v>
-      </c>
-      <c r="M37" s="19"/>
+        <f t="shared" ref="L37" si="65">I37-K37</f>
+        <v>2</v>
+      </c>
+      <c r="M37" s="17"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12">
-        <f t="shared" ref="O37" si="71">L37-N37</f>
-        <v>2</v>
-      </c>
-      <c r="P37" s="19"/>
+        <f t="shared" ref="O37" si="66">L37-N37</f>
+        <v>2</v>
+      </c>
+      <c r="P37" s="17"/>
       <c r="Q37" s="12"/>
       <c r="R37" s="12">
-        <f t="shared" ref="R37" si="72">O37-Q37</f>
-        <v>2</v>
-      </c>
-      <c r="S37" s="19"/>
+        <f t="shared" ref="R37" si="67">O37-Q37</f>
+        <v>2</v>
+      </c>
+      <c r="S37" s="17"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12">
-        <f t="shared" ref="U37" si="73">R37-T37</f>
-        <v>2</v>
-      </c>
-      <c r="V37" s="19"/>
+        <f t="shared" ref="U37" si="68">R37-T37</f>
+        <v>2</v>
+      </c>
+      <c r="V37" s="17"/>
       <c r="W37" s="12"/>
       <c r="X37" s="12">
-        <f t="shared" ref="X37" si="74">U37-W37</f>
-        <v>2</v>
-      </c>
-      <c r="Y37" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="Y37" s="17"/>
       <c r="Z37" s="12"/>
       <c r="AA37" s="12">
-        <f t="shared" ref="AA37" si="75">X37-Z37</f>
-        <v>2</v>
-      </c>
-      <c r="AB37" s="19"/>
+        <f t="shared" ref="AA37" si="69">X37-Z37</f>
+        <v>2</v>
+      </c>
+      <c r="AB37" s="17"/>
       <c r="AC37" s="12"/>
       <c r="AD37" s="12">
-        <f t="shared" ref="AD37" si="76">AA37-AC37</f>
-        <v>2</v>
-      </c>
-      <c r="AE37" s="19"/>
+        <f t="shared" ref="AD37" si="70">AA37-AC37</f>
+        <v>2</v>
+      </c>
+      <c r="AE37" s="17"/>
       <c r="AF37" s="12"/>
       <c r="AG37" s="12">
-        <f t="shared" ref="AG37" si="77">AD37-AF37</f>
-        <v>2</v>
-      </c>
-      <c r="AH37" s="19"/>
+        <f t="shared" ref="AG37" si="71">AD37-AF37</f>
+        <v>2</v>
+      </c>
+      <c r="AH37" s="17"/>
       <c r="AI37" s="12"/>
       <c r="AJ37" s="12">
-        <f t="shared" ref="AJ37" si="78">AG37-AI37</f>
-        <v>2</v>
-      </c>
-      <c r="AK37" s="19"/>
+        <f t="shared" ref="AJ37" si="72">AG37-AI37</f>
+        <v>2</v>
+      </c>
+      <c r="AK37" s="17"/>
       <c r="AL37" s="12"/>
       <c r="AM37" s="12">
-        <f t="shared" ref="AM37" si="79">AJ37-AL37</f>
-        <v>2</v>
-      </c>
-      <c r="AN37" s="19"/>
+        <f t="shared" ref="AM37" si="73">AJ37-AL37</f>
+        <v>2</v>
+      </c>
+      <c r="AN37" s="17"/>
       <c r="AO37" s="12"/>
       <c r="AP37" s="12">
-        <f t="shared" ref="AP37" si="80">AM37-AO37</f>
-        <v>2</v>
-      </c>
-      <c r="AQ37" s="19"/>
+        <f t="shared" ref="AP37" si="74">AM37-AO37</f>
+        <v>2</v>
+      </c>
+      <c r="AQ37" s="17"/>
       <c r="AR37" s="12"/>
       <c r="AS37" s="12">
-        <f t="shared" ref="AS37" si="81">AP37-AR37</f>
-        <v>2</v>
-      </c>
-      <c r="AT37" s="19"/>
+        <f t="shared" ref="AS37" si="75">AP37-AR37</f>
+        <v>2</v>
+      </c>
+      <c r="AT37" s="17"/>
       <c r="AU37" s="12"/>
       <c r="AV37" s="12">
-        <f t="shared" ref="AV37" si="82">AS37-AU37</f>
-        <v>2</v>
-      </c>
-      <c r="AW37" s="19"/>
+        <f t="shared" ref="AV37" si="76">AS37-AU37</f>
+        <v>2</v>
+      </c>
+      <c r="AW37" s="17"/>
       <c r="AX37" s="12"/>
       <c r="AY37" s="12">
-        <f t="shared" ref="AY37" si="83">AV37-AX37</f>
-        <v>2</v>
-      </c>
-      <c r="AZ37" s="20">
-        <f t="shared" ref="AZ37" si="84">H37+K37+N37+Q37+T37+W37+Z37+AC37+AF37+AI37+AL37+AO37+AR37+AU37+AX37</f>
-        <v>0</v>
-      </c>
-      <c r="BA37" s="20">
-        <f t="shared" ref="BA37" si="85">G37-AZ37</f>
-        <v>2</v>
+        <f t="shared" ref="AY37" si="77">AV37-AX37</f>
+        <v>2</v>
+      </c>
+      <c r="AZ37" s="21">
+        <v>1.0671296296296297E-2</v>
+      </c>
+      <c r="BA37" s="18">
+        <f t="shared" ref="BA37" si="78">G37-AZ37</f>
+        <v>1.9893287037037037</v>
       </c>
     </row>
     <row r="38" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G38" s="12">
         <v>2</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="J38" s="19"/>
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="J38" s="17"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M38" s="19"/>
+      <c r="M38" s="17"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P38" s="19"/>
+      <c r="P38" s="17"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="12">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="S38" s="19"/>
+      <c r="S38" s="17"/>
       <c r="T38" s="12"/>
       <c r="U38" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="V38" s="19"/>
+      <c r="V38" s="17"/>
       <c r="W38" s="12"/>
       <c r="X38" s="12">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Y38" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="Y38" s="17"/>
       <c r="Z38" s="12"/>
       <c r="AA38" s="12">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AB38" s="19"/>
+      <c r="AB38" s="17"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="12">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AE38" s="19"/>
+      <c r="AE38" s="17"/>
       <c r="AF38" s="12"/>
       <c r="AG38" s="12">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AH38" s="19"/>
+      <c r="AH38" s="17"/>
       <c r="AI38" s="12"/>
       <c r="AJ38" s="12">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AK38" s="19"/>
+      <c r="AK38" s="17"/>
       <c r="AL38" s="12"/>
       <c r="AM38" s="12">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AN38" s="19"/>
+      <c r="AN38" s="17"/>
       <c r="AO38" s="12"/>
       <c r="AP38" s="12">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AQ38" s="19"/>
+      <c r="AQ38" s="17"/>
       <c r="AR38" s="12"/>
       <c r="AS38" s="12">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="AT38" s="19"/>
+      <c r="AT38" s="17"/>
       <c r="AU38" s="12"/>
       <c r="AV38" s="12">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="AW38" s="19"/>
+      <c r="AW38" s="17"/>
       <c r="AX38" s="12"/>
       <c r="AY38" s="12">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AZ38" s="20">
+      <c r="AZ38" s="21">
+        <v>4.0393518518518521E-3</v>
+      </c>
+      <c r="BA38" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BA38" s="20">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>1.9959606481481482</v>
       </c>
     </row>
     <row r="39" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B39" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G39" s="12">
         <v>2</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="12">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="J39" s="19"/>
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="J39" s="17"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M39" s="19"/>
+      <c r="M39" s="17"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P39" s="19"/>
+      <c r="P39" s="17"/>
       <c r="Q39" s="12"/>
       <c r="R39" s="12">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="S39" s="19"/>
+      <c r="S39" s="17"/>
       <c r="T39" s="12"/>
       <c r="U39" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="V39" s="19"/>
+      <c r="V39" s="17"/>
       <c r="W39" s="12"/>
       <c r="X39" s="12">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Y39" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="Y39" s="17"/>
       <c r="Z39" s="12"/>
       <c r="AA39" s="12">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="AB39" s="19"/>
+      <c r="AB39" s="17"/>
       <c r="AC39" s="12"/>
       <c r="AD39" s="12">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AE39" s="19"/>
+      <c r="AE39" s="17"/>
       <c r="AF39" s="12"/>
       <c r="AG39" s="12">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AH39" s="19"/>
+      <c r="AH39" s="17"/>
       <c r="AI39" s="12"/>
       <c r="AJ39" s="12">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AK39" s="19"/>
+      <c r="AK39" s="17"/>
       <c r="AL39" s="12"/>
       <c r="AM39" s="12">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="AN39" s="19"/>
+      <c r="AN39" s="17"/>
       <c r="AO39" s="12"/>
       <c r="AP39" s="12">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AQ39" s="19"/>
+      <c r="AQ39" s="17"/>
       <c r="AR39" s="12"/>
       <c r="AS39" s="12">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="AT39" s="19"/>
+      <c r="AT39" s="17"/>
       <c r="AU39" s="12"/>
       <c r="AV39" s="12">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="AW39" s="19"/>
+      <c r="AW39" s="17"/>
       <c r="AX39" s="12"/>
       <c r="AY39" s="12">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AZ39" s="20">
+      <c r="AZ39" s="21">
+        <v>4.9189814814814816E-3</v>
+      </c>
+      <c r="BA39" s="18">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BA39" s="20">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>1.9950810185185186</v>
       </c>
     </row>
     <row r="40" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G40" s="12">
         <v>1</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="12">
-        <f t="shared" ref="I40:I42" si="86">G40-H40</f>
-        <v>1</v>
-      </c>
-      <c r="J40" s="19"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="17"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12">
-        <f t="shared" ref="L40:L42" si="87">I40-K40</f>
-        <v>1</v>
-      </c>
-      <c r="M40" s="19"/>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M40" s="17"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12">
-        <f t="shared" ref="O40:O42" si="88">L40-N40</f>
-        <v>1</v>
-      </c>
-      <c r="P40" s="19"/>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P40" s="17"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12">
-        <f t="shared" ref="R40:R42" si="89">O40-Q40</f>
-        <v>1</v>
-      </c>
-      <c r="S40" s="19"/>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S40" s="17"/>
       <c r="T40" s="12"/>
       <c r="U40" s="12">
-        <f t="shared" ref="U40:U42" si="90">R40-T40</f>
-        <v>1</v>
-      </c>
-      <c r="V40" s="19"/>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V40" s="17"/>
       <c r="W40" s="12"/>
       <c r="X40" s="12">
-        <f t="shared" ref="X40:X42" si="91">U40-W40</f>
-        <v>1</v>
-      </c>
-      <c r="Y40" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="Y40" s="17"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="12">
-        <f t="shared" ref="AA40:AA42" si="92">X40-Z40</f>
-        <v>1</v>
-      </c>
-      <c r="AB40" s="19"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB40" s="17"/>
       <c r="AC40" s="12"/>
       <c r="AD40" s="12">
-        <f t="shared" ref="AD40:AD42" si="93">AA40-AC40</f>
-        <v>1</v>
-      </c>
-      <c r="AE40" s="19"/>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AE40" s="17"/>
       <c r="AF40" s="12"/>
       <c r="AG40" s="12">
-        <f t="shared" ref="AG40:AG42" si="94">AD40-AF40</f>
-        <v>1</v>
-      </c>
-      <c r="AH40" s="19"/>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AH40" s="17"/>
       <c r="AI40" s="12"/>
       <c r="AJ40" s="12">
-        <f t="shared" ref="AJ40:AJ42" si="95">AG40-AI40</f>
-        <v>1</v>
-      </c>
-      <c r="AK40" s="19"/>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AK40" s="17"/>
       <c r="AL40" s="12"/>
       <c r="AM40" s="12">
-        <f t="shared" ref="AM40:AM42" si="96">AJ40-AL40</f>
-        <v>1</v>
-      </c>
-      <c r="AN40" s="19"/>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AN40" s="17"/>
       <c r="AO40" s="12"/>
       <c r="AP40" s="12">
-        <f t="shared" ref="AP40:AP42" si="97">AM40-AO40</f>
-        <v>1</v>
-      </c>
-      <c r="AQ40" s="19"/>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="17"/>
       <c r="AR40" s="12"/>
       <c r="AS40" s="12">
-        <f t="shared" ref="AS40:AS42" si="98">AP40-AR40</f>
-        <v>1</v>
-      </c>
-      <c r="AT40" s="19"/>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AT40" s="17"/>
       <c r="AU40" s="12"/>
       <c r="AV40" s="12">
-        <f t="shared" ref="AV40:AV42" si="99">AS40-AU40</f>
-        <v>1</v>
-      </c>
-      <c r="AW40" s="19"/>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AW40" s="17"/>
       <c r="AX40" s="12"/>
       <c r="AY40" s="12">
-        <f t="shared" ref="AY40:AY42" si="100">AV40-AX40</f>
-        <v>1</v>
-      </c>
-      <c r="AZ40" s="20">
-        <f t="shared" ref="AZ40:AZ42" si="101">H40+K40+N40+Q40+T40+W40+Z40+AC40+AF40+AI40+AL40+AO40+AR40+AU40+AX40</f>
-        <v>0</v>
-      </c>
-      <c r="BA40" s="20">
-        <f t="shared" ref="BA40:BA42" si="102">G40-AZ40</f>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AZ40" s="21">
+        <v>8.7499999999999991E-3</v>
+      </c>
+      <c r="BA40" s="18">
+        <f t="shared" si="14"/>
+        <v>0.99124999999999996</v>
       </c>
     </row>
     <row r="41" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G41" s="12">
         <v>2</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="12">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="J41" s="19"/>
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="J41" s="17"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12">
-        <f t="shared" si="87"/>
-        <v>2</v>
-      </c>
-      <c r="M41" s="19"/>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M41" s="17"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12">
-        <f t="shared" si="88"/>
-        <v>2</v>
-      </c>
-      <c r="P41" s="19"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P41" s="17"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12">
-        <f t="shared" si="89"/>
-        <v>2</v>
-      </c>
-      <c r="S41" s="19"/>
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S41" s="17"/>
       <c r="T41" s="12"/>
       <c r="U41" s="12">
-        <f t="shared" si="90"/>
-        <v>2</v>
-      </c>
-      <c r="V41" s="19"/>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V41" s="17"/>
       <c r="W41" s="12"/>
       <c r="X41" s="12">
-        <f t="shared" si="91"/>
-        <v>2</v>
-      </c>
-      <c r="Y41" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="Y41" s="17"/>
       <c r="Z41" s="12"/>
       <c r="AA41" s="12">
-        <f t="shared" si="92"/>
-        <v>2</v>
-      </c>
-      <c r="AB41" s="19"/>
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AB41" s="17"/>
       <c r="AC41" s="12"/>
       <c r="AD41" s="12">
-        <f t="shared" si="93"/>
-        <v>2</v>
-      </c>
-      <c r="AE41" s="19"/>
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AE41" s="17"/>
       <c r="AF41" s="12"/>
       <c r="AG41" s="12">
-        <f t="shared" si="94"/>
-        <v>2</v>
-      </c>
-      <c r="AH41" s="19"/>
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AH41" s="17"/>
       <c r="AI41" s="12"/>
       <c r="AJ41" s="12">
-        <f t="shared" si="95"/>
-        <v>2</v>
-      </c>
-      <c r="AK41" s="19"/>
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AK41" s="17"/>
       <c r="AL41" s="12"/>
       <c r="AM41" s="12">
-        <f t="shared" si="96"/>
-        <v>2</v>
-      </c>
-      <c r="AN41" s="19"/>
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AN41" s="17"/>
       <c r="AO41" s="12"/>
       <c r="AP41" s="12">
-        <f t="shared" si="97"/>
-        <v>2</v>
-      </c>
-      <c r="AQ41" s="19"/>
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AQ41" s="17"/>
       <c r="AR41" s="12"/>
       <c r="AS41" s="12">
-        <f t="shared" si="98"/>
-        <v>2</v>
-      </c>
-      <c r="AT41" s="19"/>
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AT41" s="17"/>
       <c r="AU41" s="12"/>
       <c r="AV41" s="12">
-        <f t="shared" si="99"/>
-        <v>2</v>
-      </c>
-      <c r="AW41" s="19"/>
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AW41" s="17"/>
       <c r="AX41" s="12"/>
       <c r="AY41" s="12">
-        <f t="shared" si="100"/>
-        <v>2</v>
-      </c>
-      <c r="AZ41" s="20">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="BA41" s="20">
-        <f t="shared" si="102"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AZ41" s="21">
+        <v>5.0578703703703706E-3</v>
+      </c>
+      <c r="BA41" s="18">
+        <f t="shared" si="14"/>
+        <v>1.9949421296296297</v>
       </c>
     </row>
     <row r="42" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G42" s="12">
         <v>2</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="12">
-        <f t="shared" si="86"/>
-        <v>2</v>
-      </c>
-      <c r="J42" s="19"/>
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="J42" s="17"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12">
-        <f t="shared" si="87"/>
-        <v>2</v>
-      </c>
-      <c r="M42" s="19"/>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M42" s="17"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12">
-        <f t="shared" si="88"/>
-        <v>2</v>
-      </c>
-      <c r="P42" s="19"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P42" s="17"/>
       <c r="Q42" s="12"/>
       <c r="R42" s="12">
-        <f t="shared" si="89"/>
-        <v>2</v>
-      </c>
-      <c r="S42" s="19"/>
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S42" s="17"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12">
-        <f t="shared" si="90"/>
-        <v>2</v>
-      </c>
-      <c r="V42" s="19"/>
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V42" s="17"/>
       <c r="W42" s="12"/>
       <c r="X42" s="12">
-        <f t="shared" si="91"/>
-        <v>2</v>
-      </c>
-      <c r="Y42" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="Y42" s="17"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="12">
-        <f t="shared" si="92"/>
-        <v>2</v>
-      </c>
-      <c r="AB42" s="19"/>
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AB42" s="17"/>
       <c r="AC42" s="12"/>
       <c r="AD42" s="12">
-        <f t="shared" si="93"/>
-        <v>2</v>
-      </c>
-      <c r="AE42" s="19"/>
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AE42" s="17"/>
       <c r="AF42" s="12"/>
       <c r="AG42" s="12">
-        <f t="shared" si="94"/>
-        <v>2</v>
-      </c>
-      <c r="AH42" s="19"/>
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AH42" s="17"/>
       <c r="AI42" s="12"/>
       <c r="AJ42" s="12">
-        <f t="shared" si="95"/>
-        <v>2</v>
-      </c>
-      <c r="AK42" s="19"/>
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AK42" s="17"/>
       <c r="AL42" s="12"/>
       <c r="AM42" s="12">
-        <f t="shared" si="96"/>
-        <v>2</v>
-      </c>
-      <c r="AN42" s="19"/>
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AN42" s="17"/>
       <c r="AO42" s="12"/>
       <c r="AP42" s="12">
-        <f t="shared" si="97"/>
-        <v>2</v>
-      </c>
-      <c r="AQ42" s="19"/>
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AQ42" s="17"/>
       <c r="AR42" s="12"/>
       <c r="AS42" s="12">
-        <f t="shared" si="98"/>
-        <v>2</v>
-      </c>
-      <c r="AT42" s="19"/>
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AT42" s="17"/>
       <c r="AU42" s="12"/>
       <c r="AV42" s="12">
-        <f t="shared" si="99"/>
-        <v>2</v>
-      </c>
-      <c r="AW42" s="19"/>
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AW42" s="17"/>
       <c r="AX42" s="12"/>
       <c r="AY42" s="12">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AZ42" s="21">
+        <v>5.2199074074074066E-3</v>
+      </c>
+      <c r="BA42" s="18">
+        <f t="shared" si="14"/>
+        <v>1.9947800925925927</v>
+      </c>
+    </row>
+    <row r="43" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="12">
+        <v>2</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="J43" s="17"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M43" s="17"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S43" s="17"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V43" s="17"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12">
+        <f t="shared" ref="X43:X45" si="79">U43-W43</f>
+        <v>2</v>
+      </c>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AH43" s="17"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AK43" s="17"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AN43" s="17"/>
+      <c r="AO43" s="12"/>
+      <c r="AP43" s="12">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AQ43" s="17"/>
+      <c r="AR43" s="12"/>
+      <c r="AS43" s="12">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AT43" s="17"/>
+      <c r="AU43" s="12"/>
+      <c r="AV43" s="12">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AW43" s="17"/>
+      <c r="AX43" s="12"/>
+      <c r="AY43" s="12">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AZ43" s="21">
+        <v>3.3564814814814811E-3</v>
+      </c>
+      <c r="BA43" s="18">
+        <f t="shared" si="14"/>
+        <v>1.9966435185185185</v>
+      </c>
+    </row>
+    <row r="44" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="12">
+        <v>1</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J44" s="17"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M44" s="17"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S44" s="17"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V44" s="17"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AH44" s="17"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AK44" s="17"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AN44" s="17"/>
+      <c r="AO44" s="12"/>
+      <c r="AP44" s="12">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="17"/>
+      <c r="AR44" s="12"/>
+      <c r="AS44" s="12">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AT44" s="17"/>
+      <c r="AU44" s="12"/>
+      <c r="AV44" s="12">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AW44" s="17"/>
+      <c r="AX44" s="12"/>
+      <c r="AY44" s="12">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AZ44" s="21">
+        <v>2.8124999999999995E-3</v>
+      </c>
+      <c r="BA44" s="18">
+        <f t="shared" si="14"/>
+        <v>0.9971875</v>
+      </c>
+    </row>
+    <row r="45" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="12">
+        <v>2</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="J45" s="17"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M45" s="17"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S45" s="17"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V45" s="17"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12">
+        <f t="shared" si="79"/>
+        <v>2</v>
+      </c>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AH45" s="17"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AK45" s="17"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AN45" s="17"/>
+      <c r="AO45" s="12"/>
+      <c r="AP45" s="12">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AQ45" s="17"/>
+      <c r="AR45" s="12"/>
+      <c r="AS45" s="12">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AT45" s="17"/>
+      <c r="AU45" s="12"/>
+      <c r="AV45" s="12">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AW45" s="17"/>
+      <c r="AX45" s="12"/>
+      <c r="AY45" s="12">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AZ45" s="21">
+        <v>2.3726851851851851E-3</v>
+      </c>
+      <c r="BA45" s="18">
+        <f t="shared" si="14"/>
+        <v>1.9976273148148149</v>
+      </c>
+    </row>
+    <row r="46" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="12">
+        <v>2</v>
+      </c>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12">
+        <f t="shared" ref="I46:I48" si="80">G46-H46</f>
+        <v>2</v>
+      </c>
+      <c r="J46" s="17"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12">
+        <f t="shared" ref="L46:L48" si="81">I46-K46</f>
+        <v>2</v>
+      </c>
+      <c r="M46" s="17"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12">
+        <f t="shared" ref="O46:O48" si="82">L46-N46</f>
+        <v>2</v>
+      </c>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12">
+        <f t="shared" ref="R46:R48" si="83">O46-Q46</f>
+        <v>2</v>
+      </c>
+      <c r="S46" s="17"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12">
+        <f t="shared" ref="U46:U48" si="84">R46-T46</f>
+        <v>2</v>
+      </c>
+      <c r="V46" s="17"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12">
+        <f t="shared" ref="X46:X48" si="85">U46-W46</f>
+        <v>2</v>
+      </c>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12">
+        <f t="shared" ref="AA46:AA48" si="86">X46-Z46</f>
+        <v>2</v>
+      </c>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12">
+        <f t="shared" ref="AD46:AD48" si="87">AA46-AC46</f>
+        <v>2</v>
+      </c>
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12">
+        <f t="shared" ref="AG46:AG48" si="88">AD46-AF46</f>
+        <v>2</v>
+      </c>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12">
+        <f t="shared" ref="AJ46:AJ48" si="89">AG46-AI46</f>
+        <v>2</v>
+      </c>
+      <c r="AK46" s="17"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="12">
+        <f t="shared" ref="AM46:AM48" si="90">AJ46-AL46</f>
+        <v>2</v>
+      </c>
+      <c r="AN46" s="17"/>
+      <c r="AO46" s="12"/>
+      <c r="AP46" s="12">
+        <f t="shared" ref="AP46:AP48" si="91">AM46-AO46</f>
+        <v>2</v>
+      </c>
+      <c r="AQ46" s="17"/>
+      <c r="AR46" s="12"/>
+      <c r="AS46" s="12">
+        <f t="shared" ref="AS46:AS48" si="92">AP46-AR46</f>
+        <v>2</v>
+      </c>
+      <c r="AT46" s="17"/>
+      <c r="AU46" s="12"/>
+      <c r="AV46" s="12">
+        <f t="shared" ref="AV46:AV48" si="93">AS46-AU46</f>
+        <v>2</v>
+      </c>
+      <c r="AW46" s="17"/>
+      <c r="AX46" s="12"/>
+      <c r="AY46" s="12">
+        <f t="shared" ref="AY46:AY48" si="94">AV46-AX46</f>
+        <v>2</v>
+      </c>
+      <c r="AZ46" s="21">
+        <v>7.2569444444444443E-3</v>
+      </c>
+      <c r="BA46" s="18">
+        <f t="shared" ref="BA46:BA48" si="95">G46-AZ46</f>
+        <v>1.9927430555555556</v>
+      </c>
+    </row>
+    <row r="47" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B47" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="12">
+        <v>2</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12">
+        <f t="shared" si="80"/>
+        <v>2</v>
+      </c>
+      <c r="J47" s="17"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12">
+        <f t="shared" si="81"/>
+        <v>2</v>
+      </c>
+      <c r="M47" s="17"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12">
+        <f t="shared" si="83"/>
+        <v>2</v>
+      </c>
+      <c r="S47" s="17"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12">
+        <f t="shared" si="84"/>
+        <v>2</v>
+      </c>
+      <c r="V47" s="17"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12">
+        <f t="shared" si="86"/>
+        <v>2</v>
+      </c>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12">
+        <f t="shared" si="87"/>
+        <v>2</v>
+      </c>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12">
+        <f t="shared" si="88"/>
+        <v>2</v>
+      </c>
+      <c r="AH47" s="17"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12">
+        <f t="shared" si="89"/>
+        <v>2</v>
+      </c>
+      <c r="AK47" s="17"/>
+      <c r="AL47" s="12"/>
+      <c r="AM47" s="12">
+        <f t="shared" si="90"/>
+        <v>2</v>
+      </c>
+      <c r="AN47" s="17"/>
+      <c r="AO47" s="12"/>
+      <c r="AP47" s="12">
+        <f t="shared" si="91"/>
+        <v>2</v>
+      </c>
+      <c r="AQ47" s="17"/>
+      <c r="AR47" s="12"/>
+      <c r="AS47" s="12">
+        <f t="shared" si="92"/>
+        <v>2</v>
+      </c>
+      <c r="AT47" s="17"/>
+      <c r="AU47" s="12"/>
+      <c r="AV47" s="12">
+        <f t="shared" si="93"/>
+        <v>2</v>
+      </c>
+      <c r="AW47" s="17"/>
+      <c r="AX47" s="12"/>
+      <c r="AY47" s="12">
+        <f t="shared" si="94"/>
+        <v>2</v>
+      </c>
+      <c r="AZ47" s="21">
+        <v>2.8124999999999995E-3</v>
+      </c>
+      <c r="BA47" s="18">
+        <f t="shared" si="95"/>
+        <v>1.9971874999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" s="12">
+        <v>1</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="J48" s="17"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="M48" s="17"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12">
+        <f t="shared" si="83"/>
+        <v>1</v>
+      </c>
+      <c r="S48" s="17"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="V48" s="17"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="AE48" s="17"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="12">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+      <c r="AH48" s="17"/>
+      <c r="AI48" s="12"/>
+      <c r="AJ48" s="12">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="AK48" s="17"/>
+      <c r="AL48" s="12"/>
+      <c r="AM48" s="12">
+        <f t="shared" si="90"/>
+        <v>1</v>
+      </c>
+      <c r="AN48" s="17"/>
+      <c r="AO48" s="12"/>
+      <c r="AP48" s="12">
+        <f t="shared" si="91"/>
+        <v>1</v>
+      </c>
+      <c r="AQ48" s="17"/>
+      <c r="AR48" s="12"/>
+      <c r="AS48" s="12">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="AT48" s="17"/>
+      <c r="AU48" s="12"/>
+      <c r="AV48" s="12">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+      <c r="AW48" s="17"/>
+      <c r="AX48" s="12"/>
+      <c r="AY48" s="12">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="AZ48" s="21">
+        <v>3.3101851851851851E-3</v>
+      </c>
+      <c r="BA48" s="18">
+        <f t="shared" si="95"/>
+        <v>0.99668981481481478</v>
+      </c>
+    </row>
+    <row r="49" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="12">
+        <v>2</v>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12">
+        <f t="shared" ref="I49:I54" si="96">G49-H49</f>
+        <v>2</v>
+      </c>
+      <c r="J49" s="17"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12">
+        <f t="shared" ref="L49:L54" si="97">I49-K49</f>
+        <v>2</v>
+      </c>
+      <c r="M49" s="17"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12">
+        <f t="shared" ref="O49:O54" si="98">L49-N49</f>
+        <v>2</v>
+      </c>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12">
+        <f t="shared" ref="R49:R54" si="99">O49-Q49</f>
+        <v>2</v>
+      </c>
+      <c r="S49" s="17"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12">
+        <f t="shared" ref="U49:U54" si="100">R49-T49</f>
+        <v>2</v>
+      </c>
+      <c r="V49" s="17"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12">
+        <f t="shared" ref="X49:X54" si="101">U49-W49</f>
+        <v>2</v>
+      </c>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12">
+        <f t="shared" ref="AA49:AA54" si="102">X49-Z49</f>
+        <v>2</v>
+      </c>
+      <c r="AB49" s="17"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12">
+        <f t="shared" ref="AD49:AD54" si="103">AA49-AC49</f>
+        <v>2</v>
+      </c>
+      <c r="AE49" s="17"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12">
+        <f t="shared" ref="AG49:AG54" si="104">AD49-AF49</f>
+        <v>2</v>
+      </c>
+      <c r="AH49" s="17"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12">
+        <f t="shared" ref="AJ49:AJ54" si="105">AG49-AI49</f>
+        <v>2</v>
+      </c>
+      <c r="AK49" s="17"/>
+      <c r="AL49" s="12"/>
+      <c r="AM49" s="12">
+        <f t="shared" ref="AM49:AM54" si="106">AJ49-AL49</f>
+        <v>2</v>
+      </c>
+      <c r="AN49" s="17"/>
+      <c r="AO49" s="12"/>
+      <c r="AP49" s="12">
+        <f t="shared" ref="AP49:AP54" si="107">AM49-AO49</f>
+        <v>2</v>
+      </c>
+      <c r="AQ49" s="17"/>
+      <c r="AR49" s="12"/>
+      <c r="AS49" s="12">
+        <f t="shared" ref="AS49:AS54" si="108">AP49-AR49</f>
+        <v>2</v>
+      </c>
+      <c r="AT49" s="17"/>
+      <c r="AU49" s="12"/>
+      <c r="AV49" s="12">
+        <f t="shared" ref="AV49:AV54" si="109">AS49-AU49</f>
+        <v>2</v>
+      </c>
+      <c r="AW49" s="17"/>
+      <c r="AX49" s="12"/>
+      <c r="AY49" s="12">
+        <f t="shared" ref="AY49:AY54" si="110">AV49-AX49</f>
+        <v>2</v>
+      </c>
+      <c r="AZ49" s="21">
+        <v>6.8634259259259256E-3</v>
+      </c>
+      <c r="BA49" s="18">
+        <f t="shared" ref="BA49:BA54" si="111">G49-AZ49</f>
+        <v>1.9931365740740741</v>
+      </c>
+    </row>
+    <row r="50" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="12">
+        <v>2</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12">
+        <f t="shared" si="96"/>
+        <v>2</v>
+      </c>
+      <c r="J50" s="17"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12">
+        <f t="shared" si="97"/>
+        <v>2</v>
+      </c>
+      <c r="M50" s="17"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12">
+        <f t="shared" si="98"/>
+        <v>2</v>
+      </c>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12">
+        <f t="shared" si="99"/>
+        <v>2</v>
+      </c>
+      <c r="S50" s="17"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12">
         <f t="shared" si="100"/>
         <v>2</v>
       </c>
-      <c r="AZ42" s="20">
+      <c r="V50" s="17"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12">
         <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="BA42" s="20">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="17"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12">
         <f t="shared" si="102"/>
         <v>2</v>
+      </c>
+      <c r="AB50" s="17"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12">
+        <f t="shared" si="103"/>
+        <v>2</v>
+      </c>
+      <c r="AE50" s="17"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12">
+        <f t="shared" si="104"/>
+        <v>2</v>
+      </c>
+      <c r="AH50" s="17"/>
+      <c r="AI50" s="12"/>
+      <c r="AJ50" s="12">
+        <f t="shared" si="105"/>
+        <v>2</v>
+      </c>
+      <c r="AK50" s="17"/>
+      <c r="AL50" s="12"/>
+      <c r="AM50" s="12">
+        <f t="shared" si="106"/>
+        <v>2</v>
+      </c>
+      <c r="AN50" s="17"/>
+      <c r="AO50" s="12"/>
+      <c r="AP50" s="12">
+        <f t="shared" si="107"/>
+        <v>2</v>
+      </c>
+      <c r="AQ50" s="17"/>
+      <c r="AR50" s="12"/>
+      <c r="AS50" s="12">
+        <f t="shared" si="108"/>
+        <v>2</v>
+      </c>
+      <c r="AT50" s="17"/>
+      <c r="AU50" s="12"/>
+      <c r="AV50" s="12">
+        <f t="shared" si="109"/>
+        <v>2</v>
+      </c>
+      <c r="AW50" s="17"/>
+      <c r="AX50" s="12"/>
+      <c r="AY50" s="12">
+        <f t="shared" si="110"/>
+        <v>2</v>
+      </c>
+      <c r="AZ50" s="18"/>
+      <c r="BA50" s="18">
+        <f t="shared" si="111"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0</v>
+      </c>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="17"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="17"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="17"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="17"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="17"/>
+      <c r="AC51" s="12"/>
+      <c r="AD51" s="12">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="AE51" s="17"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="12">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="AH51" s="17"/>
+      <c r="AI51" s="12"/>
+      <c r="AJ51" s="12">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="AK51" s="17"/>
+      <c r="AL51" s="12"/>
+      <c r="AM51" s="12">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="AN51" s="17"/>
+      <c r="AO51" s="12"/>
+      <c r="AP51" s="12">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="17"/>
+      <c r="AR51" s="12"/>
+      <c r="AS51" s="12">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="AT51" s="17"/>
+      <c r="AU51" s="12"/>
+      <c r="AV51" s="12">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AW51" s="17"/>
+      <c r="AX51" s="12"/>
+      <c r="AY51" s="12">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="AZ51" s="21">
+        <v>0.22561342592592593</v>
+      </c>
+      <c r="BA51" s="18">
+        <f t="shared" si="111"/>
+        <v>-0.22561342592592593</v>
+      </c>
+    </row>
+    <row r="52" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B52" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0</v>
+      </c>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="17"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="17"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="17"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="17"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="17"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="AB52" s="17"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="AE52" s="17"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="AH52" s="17"/>
+      <c r="AI52" s="12"/>
+      <c r="AJ52" s="12">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="AK52" s="17"/>
+      <c r="AL52" s="12"/>
+      <c r="AM52" s="12">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="AN52" s="17"/>
+      <c r="AO52" s="12"/>
+      <c r="AP52" s="12">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="17"/>
+      <c r="AR52" s="12"/>
+      <c r="AS52" s="12">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="AT52" s="17"/>
+      <c r="AU52" s="12"/>
+      <c r="AV52" s="12">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AW52" s="17"/>
+      <c r="AX52" s="12"/>
+      <c r="AY52" s="12">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="AZ52" s="21">
+        <v>4.8148148148148152E-3</v>
+      </c>
+      <c r="BA52" s="18">
+        <f t="shared" si="111"/>
+        <v>-4.8148148148148152E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B53" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0</v>
+      </c>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="17"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="17"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="17"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="17"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="AB53" s="17"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="12">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="AE53" s="17"/>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="AH53" s="17"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="AK53" s="17"/>
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="12">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="AN53" s="17"/>
+      <c r="AO53" s="12"/>
+      <c r="AP53" s="12">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="17"/>
+      <c r="AR53" s="12"/>
+      <c r="AS53" s="12">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="AT53" s="17"/>
+      <c r="AU53" s="12"/>
+      <c r="AV53" s="12">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AW53" s="17"/>
+      <c r="AX53" s="12"/>
+      <c r="AY53" s="12">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="AZ53" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA53" s="18" t="e">
+        <f t="shared" si="111"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B54" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0</v>
+      </c>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="17"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="17"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="17"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="17"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="AB54" s="17"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="AE54" s="17"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="AH54" s="17"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="AK54" s="17"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="AN54" s="17"/>
+      <c r="AO54" s="12"/>
+      <c r="AP54" s="12">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="17"/>
+      <c r="AR54" s="12"/>
+      <c r="AS54" s="12">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="AT54" s="17"/>
+      <c r="AU54" s="12"/>
+      <c r="AV54" s="12">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AW54" s="17"/>
+      <c r="AX54" s="12"/>
+      <c r="AY54" s="12">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="AZ54" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA54" s="18" t="e">
+        <f t="shared" si="111"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B55" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12">
+        <f t="shared" ref="I55:I56" si="112">G55-H55</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="17"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12">
+        <f t="shared" ref="L55:L56" si="113">I55-K55</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="17"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12">
+        <f t="shared" ref="O55:O56" si="114">L55-N55</f>
+        <v>0</v>
+      </c>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12">
+        <f t="shared" ref="R55:R56" si="115">O55-Q55</f>
+        <v>0</v>
+      </c>
+      <c r="S55" s="17"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12">
+        <f t="shared" ref="U55:U56" si="116">R55-T55</f>
+        <v>0</v>
+      </c>
+      <c r="V55" s="17"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12">
+        <f t="shared" ref="X55:X56" si="117">U55-W55</f>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="17"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12">
+        <f t="shared" ref="AA55:AA56" si="118">X55-Z55</f>
+        <v>0</v>
+      </c>
+      <c r="AB55" s="17"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12">
+        <f t="shared" ref="AD55:AD56" si="119">AA55-AC55</f>
+        <v>0</v>
+      </c>
+      <c r="AE55" s="17"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12">
+        <f t="shared" ref="AG55:AG56" si="120">AD55-AF55</f>
+        <v>0</v>
+      </c>
+      <c r="AH55" s="17"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="12">
+        <f t="shared" ref="AJ55:AJ56" si="121">AG55-AI55</f>
+        <v>0</v>
+      </c>
+      <c r="AK55" s="17"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="12">
+        <f t="shared" ref="AM55:AM56" si="122">AJ55-AL55</f>
+        <v>0</v>
+      </c>
+      <c r="AN55" s="17"/>
+      <c r="AO55" s="12"/>
+      <c r="AP55" s="12">
+        <f t="shared" ref="AP55:AP56" si="123">AM55-AO55</f>
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="17"/>
+      <c r="AR55" s="12"/>
+      <c r="AS55" s="12">
+        <f t="shared" ref="AS55:AS56" si="124">AP55-AR55</f>
+        <v>0</v>
+      </c>
+      <c r="AT55" s="17"/>
+      <c r="AU55" s="12"/>
+      <c r="AV55" s="12">
+        <f t="shared" ref="AV55:AV56" si="125">AS55-AU55</f>
+        <v>0</v>
+      </c>
+      <c r="AW55" s="17"/>
+      <c r="AX55" s="12"/>
+      <c r="AY55" s="12">
+        <f t="shared" ref="AY55:AY56" si="126">AV55-AX55</f>
+        <v>0</v>
+      </c>
+      <c r="AZ55" s="21">
+        <v>0.21091435185185184</v>
+      </c>
+      <c r="BA55" s="18">
+        <f t="shared" ref="BA55:BA56" si="127">G55-AZ55</f>
+        <v>-0.21091435185185184</v>
+      </c>
+    </row>
+    <row r="56" spans="2:53" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B56" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="12">
+        <v>0</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="17"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="17"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="17"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="17"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="17"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="AB56" s="17"/>
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="12">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="AE56" s="17"/>
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="12">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="AH56" s="17"/>
+      <c r="AI56" s="12"/>
+      <c r="AJ56" s="12">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="AK56" s="17"/>
+      <c r="AL56" s="12"/>
+      <c r="AM56" s="12">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="AN56" s="17"/>
+      <c r="AO56" s="12"/>
+      <c r="AP56" s="12">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="AQ56" s="17"/>
+      <c r="AR56" s="12"/>
+      <c r="AS56" s="12">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="AT56" s="17"/>
+      <c r="AU56" s="12"/>
+      <c r="AV56" s="12">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="AW56" s="17"/>
+      <c r="AX56" s="12"/>
+      <c r="AY56" s="12">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="AZ56" s="21">
+        <v>0.1584837962962963</v>
+      </c>
+      <c r="BA56" s="18">
+        <f t="shared" si="127"/>
+        <v>-0.1584837962962963</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -5218,17 +6836,15 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="77" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="31" max="53" man="1"/>
+  </rowBreaks>
   <colBreaks count="4" manualBreakCount="4">
-    <brk id="17" max="43" man="1"/>
-    <brk id="22" max="43" man="1"/>
+    <brk id="11" max="43" man="1"/>
+    <brk id="25" max="43" man="1"/>
     <brk id="36" max="18" man="1"/>
     <brk id="53" max="18" man="1"/>
   </colBreaks>
@@ -5239,8 +6855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
